--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_066.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_066.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>116.1025847325388</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71.20588938841148</v>
       </c>
       <c r="E2" t="n">
-        <v>59.99802949288929</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71.2784223657425</v>
       </c>
       <c r="G2" t="n">
-        <v>17.19867041665656</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.11753896087847</v>
+        <v>7.63467376397754</v>
       </c>
       <c r="I2" t="n">
-        <v>115.4060959113868</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.17961989663943</v>
+        <v>6.95881424708471</v>
       </c>
       <c r="K2" t="n">
-        <v>9.53604801122462</v>
+        <v>26.60665640644948</v>
       </c>
       <c r="L2" t="n">
-        <v>116.1715662145749</v>
+        <v>26.22476112232135</v>
       </c>
       <c r="M2" t="n">
-        <v>38.35443593816505</v>
+        <v>326.2079258724713</v>
       </c>
       <c r="N2" t="n">
-        <v>190.0944303750939</v>
+        <v>99.7873231068258</v>
       </c>
       <c r="O2" t="n">
-        <v>65.78268128775814</v>
+        <v>28.24953087215367</v>
       </c>
       <c r="P2" t="n">
-        <v>7.254507211987256</v>
+        <v>52.39106857121745</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.34220665688136</v>
+        <v>134.5833216749419</v>
       </c>
       <c r="R2" t="n">
-        <v>55.22142475605762</v>
+        <v>47.03393547702713</v>
       </c>
       <c r="S2" t="n">
-        <v>106.7440400335447</v>
+        <v>87.66216059280802</v>
       </c>
       <c r="T2" t="n">
-        <v>57.70376254888545</v>
+        <v>47.92306605569596</v>
       </c>
       <c r="U2" t="n">
-        <v>30.50482536308108</v>
+        <v>55.41349817379525</v>
       </c>
       <c r="V2" t="n">
-        <v>31.506263524891</v>
+        <v>76.11578811144818</v>
       </c>
       <c r="W2" t="n">
-        <v>86.87076183659869</v>
+        <v>20.55996153859326</v>
       </c>
       <c r="X2" t="n">
-        <v>75.69925733353347</v>
+        <v>43.54794183128587</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.06917392791144</v>
+        <v>45.45379753220867</v>
       </c>
       <c r="Z2" t="n">
-        <v>115.1760265262838</v>
+        <v>83.67418322637673</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.57008855927373</v>
+        <v>28.86441913831877</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.71418467610795</v>
+        <v>61.4192070051041</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6706253096153</v>
+        <v>21.07198714939548</v>
       </c>
       <c r="AD2" t="n">
-        <v>50.16278444874368</v>
+        <v>139.0004876627929</v>
       </c>
       <c r="AE2" t="n">
-        <v>79.6291927408755</v>
+        <v>122.4291361387977</v>
       </c>
       <c r="AF2" t="n">
-        <v>129.1057847793854</v>
+        <v>87.35098717146073</v>
       </c>
       <c r="AG2" t="n">
-        <v>107.0816655820522</v>
+        <v>154.6297938380469</v>
       </c>
       <c r="AH2" t="n">
-        <v>74.80683660662531</v>
+        <v>58.9792328328984</v>
       </c>
       <c r="AI2" t="n">
-        <v>83.16095541161098</v>
+        <v>129.525441899412</v>
       </c>
       <c r="AJ2" t="n">
-        <v>30.11209172022183</v>
+        <v>186.0975341138247</v>
       </c>
       <c r="AK2" t="n">
-        <v>72.18384888652298</v>
+        <v>79.24305252179448</v>
       </c>
       <c r="AL2" t="n">
-        <v>45.1478756445447</v>
+        <v>144.724328762936</v>
       </c>
       <c r="AM2" t="n">
-        <v>32.12240501435463</v>
+        <v>76.24458048232124</v>
       </c>
       <c r="AN2" t="n">
-        <v>48.9020838136759</v>
+        <v>39.79157740635225</v>
       </c>
       <c r="AO2" t="n">
-        <v>28.0162170409627</v>
+        <v>9.914688660576495</v>
       </c>
       <c r="AP2" t="n">
-        <v>22.18539023277357</v>
+        <v>21.85375402411069</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23.62597336362411</v>
+        <v>10.72308930837133</v>
       </c>
       <c r="AR2" t="n">
-        <v>43.94534156120202</v>
+        <v>17.42756919635094</v>
       </c>
       <c r="AS2" t="n">
-        <v>14.45160646790738</v>
+        <v>40.93471993914594</v>
       </c>
       <c r="AT2" t="n">
-        <v>26.91701190631724</v>
+        <v>33.27842514457718</v>
       </c>
       <c r="AU2" t="n">
-        <v>31.20318331427797</v>
+        <v>29.97844730840033</v>
       </c>
       <c r="AV2" t="n">
-        <v>21.53475822633864</v>
+        <v>7.951046281302654</v>
       </c>
       <c r="AW2" t="n">
-        <v>13.56578849084417</v>
+        <v>82.01016775846936</v>
       </c>
       <c r="AX2" t="n">
-        <v>21.65072695535394</v>
+        <v>24.12231788930008</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8156634006688498</v>
+        <v>1.583496353682329</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.667579501887484</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.476908783942591</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.177284481889357</v>
       </c>
       <c r="G3" t="n">
-        <v>2.239587800364462</v>
+        <v>4.188368815113048</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.395134072769043</v>
+        <v>13.90307521328675</v>
       </c>
       <c r="J3" t="n">
-        <v>1.163888539211711</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.743731802195311</v>
+        <v>2.135353331791345</v>
       </c>
       <c r="L3" t="n">
-        <v>3.357503980510407</v>
+        <v>5.548923913395095</v>
       </c>
       <c r="M3" t="n">
-        <v>5.7138630091891</v>
+        <v>0.9750505565528753</v>
       </c>
       <c r="N3" t="n">
-        <v>4.756054219381086</v>
+        <v>9.108228582217638</v>
       </c>
       <c r="O3" t="n">
-        <v>2.827926926482198</v>
+        <v>2.056165741093423</v>
       </c>
       <c r="P3" t="n">
-        <v>3.319052294843584</v>
+        <v>6.821521559223831</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.241044037706055</v>
+        <v>3.99708086194383</v>
       </c>
       <c r="R3" t="n">
-        <v>2.185893002156504</v>
+        <v>5.123108294063391</v>
       </c>
       <c r="S3" t="n">
-        <v>2.826247728056807</v>
+        <v>1.700389121256054</v>
       </c>
       <c r="T3" t="n">
-        <v>4.926536102030378</v>
+        <v>3.759879451862594</v>
       </c>
       <c r="U3" t="n">
-        <v>3.153452997050175</v>
+        <v>5.324481818851818</v>
       </c>
       <c r="V3" t="n">
-        <v>19.6738070836817</v>
+        <v>3.53684489367565</v>
       </c>
       <c r="W3" t="n">
-        <v>4.976528247345687</v>
+        <v>5.042189125727183</v>
       </c>
       <c r="X3" t="n">
-        <v>6.034561887807659</v>
+        <v>5.40027985669863</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.711919776885692</v>
+        <v>1.152615202274858</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.792946436779016</v>
+        <v>3.614942809865083</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8606916929926763</v>
+        <v>7.226759202634635</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.871063975791577</v>
+        <v>7.567567180550923</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.001802578685956</v>
+        <v>8.78842167268564</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.768980121845461</v>
+        <v>2.059648299259422</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.945551302154224</v>
+        <v>6.421575142165752</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.567503686410846</v>
+        <v>2.161969208592718</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.257401264872954</v>
+        <v>3.696871528390779</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.2533518453614</v>
+        <v>6.078856560765557</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.407504486829655</v>
+        <v>7.338670254768417</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.360937786515707</v>
+        <v>2.231788175551864</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.882321019563828</v>
+        <v>6.383870880370655</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.299948419848037</v>
+        <v>5.068230885185005</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.01588793144223</v>
+        <v>2.393485366306438</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.191879564226491</v>
+        <v>2.203591440938426</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.690243542015244</v>
+        <v>2.98748498357966</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.683427989479087</v>
+        <v>4.511816145056961</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.760279013009654</v>
+        <v>5.723478640208777</v>
       </c>
       <c r="AR3" t="n">
-        <v>9.051564678578686</v>
+        <v>3.818077838408158</v>
       </c>
       <c r="AS3" t="n">
-        <v>5.940567974424432</v>
+        <v>3.381541194887902</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.877420476334371</v>
+        <v>3.196414029934688</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.375927446944644</v>
+        <v>1.217837436850628</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.997424387972225</v>
+        <v>3.318554447113365</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.339630584032249</v>
+        <v>1.066367847405974</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.604557399127871</v>
+        <v>5.29010622639791</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.866715116161034</v>
+        <v>63.97292981108642</v>
       </c>
       <c r="D4" t="n">
-        <v>14.87586808941983</v>
+        <v>35.76809481424181</v>
       </c>
       <c r="E4" t="n">
-        <v>8.338439432742128</v>
+        <v>44.61951212455815</v>
       </c>
       <c r="F4" t="n">
-        <v>11.9121958871663</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.063612453200514</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>190.5521827453428</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.59215907738438</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>337.9821722430686</v>
+        <v>36.76485704033243</v>
       </c>
       <c r="L4" t="n">
-        <v>36.02009885741172</v>
+        <v>25.1053018112495</v>
       </c>
       <c r="M4" t="n">
-        <v>84.32450433595588</v>
+        <v>0.4901720218803725</v>
       </c>
       <c r="N4" t="n">
-        <v>331.3949062114267</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>260.1543326963834</v>
+        <v>96.09717023330215</v>
       </c>
       <c r="P4" t="n">
-        <v>33.24218286335443</v>
+        <v>27.31323100415883</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.52076347051366</v>
+        <v>97.12013715464433</v>
       </c>
       <c r="R4" t="n">
-        <v>103.943774620041</v>
+        <v>49.8081801678223</v>
       </c>
       <c r="S4" t="n">
-        <v>32.10589468104938</v>
+        <v>105.1334760402883</v>
       </c>
       <c r="T4" t="n">
-        <v>65.35592675054383</v>
+        <v>147.1632763766322</v>
       </c>
       <c r="U4" t="n">
-        <v>55.30933924291799</v>
+        <v>103.7801731782278</v>
       </c>
       <c r="V4" t="n">
-        <v>25.01166806337572</v>
+        <v>28.23250939894103</v>
       </c>
       <c r="W4" t="n">
-        <v>50.69761581895357</v>
+        <v>83.7717765063389</v>
       </c>
       <c r="X4" t="n">
-        <v>77.586837589243</v>
+        <v>80.73880924598507</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.20513053540732</v>
+        <v>103.3462515846335</v>
       </c>
       <c r="Z4" t="n">
-        <v>32.75795813685278</v>
+        <v>93.66430189258384</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.6820455857595</v>
+        <v>24.21684786549239</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.0145033797164</v>
+        <v>141.7906661852239</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.34870015963594</v>
+        <v>64.54797096444355</v>
       </c>
       <c r="AD4" t="n">
-        <v>47.51514465284058</v>
+        <v>57.45738317835844</v>
       </c>
       <c r="AE4" t="n">
-        <v>63.77361612752962</v>
+        <v>55.10134672135606</v>
       </c>
       <c r="AF4" t="n">
-        <v>42.33363079667161</v>
+        <v>88.88294723716686</v>
       </c>
       <c r="AG4" t="n">
-        <v>75.41611625185595</v>
+        <v>42.1415047950541</v>
       </c>
       <c r="AH4" t="n">
-        <v>34.72722102347549</v>
+        <v>34.08325852374526</v>
       </c>
       <c r="AI4" t="n">
-        <v>32.88559281793178</v>
+        <v>53.28286709450863</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38.88348732000571</v>
+        <v>23.17879572208901</v>
       </c>
       <c r="AK4" t="n">
-        <v>43.15515214181983</v>
+        <v>21.56179829050583</v>
       </c>
       <c r="AL4" t="n">
-        <v>60.67322675892289</v>
+        <v>47.61950245305581</v>
       </c>
       <c r="AM4" t="n">
-        <v>27.15416405389873</v>
+        <v>10.48545825570009</v>
       </c>
       <c r="AN4" t="n">
-        <v>24.84849755347895</v>
+        <v>21.16289924197044</v>
       </c>
       <c r="AO4" t="n">
-        <v>28.84325492798487</v>
+        <v>39.77828458012951</v>
       </c>
       <c r="AP4" t="n">
-        <v>21.49431541957358</v>
+        <v>10.55480316215847</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12.01177345282443</v>
+        <v>27.06148245882926</v>
       </c>
       <c r="AR4" t="n">
-        <v>14.17006902756051</v>
+        <v>13.6266776324765</v>
       </c>
       <c r="AS4" t="n">
-        <v>33.43250775370228</v>
+        <v>28.46484219896708</v>
       </c>
       <c r="AT4" t="n">
-        <v>10.39565650104861</v>
+        <v>17.37337058045249</v>
       </c>
       <c r="AU4" t="n">
-        <v>12.54456691919138</v>
+        <v>7.784304991384976</v>
       </c>
       <c r="AV4" t="n">
-        <v>8.304959644598291</v>
+        <v>16.61039789519099</v>
       </c>
       <c r="AW4" t="n">
-        <v>33.51796674256633</v>
+        <v>20.49714586687125</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.53896840201894</v>
+        <v>0.9072979533712404</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>106.2958485137752</v>
       </c>
       <c r="D5" t="n">
-        <v>13.13347352195177</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>92.15237778446949</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>16.16633479585241</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>40.86662017924358</v>
       </c>
       <c r="H5" t="n">
-        <v>87.54513717801161</v>
+        <v>35.89240203517539</v>
       </c>
       <c r="I5" t="n">
-        <v>13.68280369921128</v>
+        <v>72.56831347619914</v>
       </c>
       <c r="J5" t="n">
-        <v>13.26366967274897</v>
+        <v>23.98993769425972</v>
       </c>
       <c r="K5" t="n">
-        <v>31.8705900340592</v>
+        <v>57.54565456217578</v>
       </c>
       <c r="L5" t="n">
-        <v>32.66633692869919</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>20.41760735304689</v>
+        <v>35.49921765444569</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4954589761167</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>89.83652237407104</v>
+        <v>100.5015473499414</v>
       </c>
       <c r="P5" t="n">
-        <v>40.20164603098707</v>
+        <v>47.48355133528679</v>
       </c>
       <c r="Q5" t="n">
-        <v>77.38690645973104</v>
+        <v>153.2865745884491</v>
       </c>
       <c r="R5" t="n">
-        <v>39.85963510292228</v>
+        <v>24.09523888926702</v>
       </c>
       <c r="S5" t="n">
-        <v>64.82942801708224</v>
+        <v>54.10192895577056</v>
       </c>
       <c r="T5" t="n">
-        <v>60.85339692010719</v>
+        <v>31.65915043570106</v>
       </c>
       <c r="U5" t="n">
-        <v>50.70421314218382</v>
+        <v>74.37276391377618</v>
       </c>
       <c r="V5" t="n">
-        <v>103.2909744241511</v>
+        <v>23.0186180448646</v>
       </c>
       <c r="W5" t="n">
-        <v>38.44534650491783</v>
+        <v>21.74482716792565</v>
       </c>
       <c r="X5" t="n">
-        <v>27.0257235508395</v>
+        <v>44.88207666091583</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.10816109764869</v>
+        <v>140.777016275426</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.62156156654417</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.41253237334561</v>
+        <v>25.55838654804874</v>
       </c>
       <c r="AB5" t="n">
-        <v>47.19984628038461</v>
+        <v>110.6159233697585</v>
       </c>
       <c r="AC5" t="n">
-        <v>28.21904650197419</v>
+        <v>29.35012575604713</v>
       </c>
       <c r="AD5" t="n">
-        <v>44.9997079040237</v>
+        <v>35.98158057558415</v>
       </c>
       <c r="AE5" t="n">
-        <v>64.98934900734089</v>
+        <v>0.1419942590605663</v>
       </c>
       <c r="AF5" t="n">
-        <v>29.69746327818424</v>
+        <v>7.369538562912648</v>
       </c>
       <c r="AG5" t="n">
-        <v>29.82394701176329</v>
+        <v>19.92835070368042</v>
       </c>
       <c r="AH5" t="n">
-        <v>26.83997894797002</v>
+        <v>1.049509334035869</v>
       </c>
       <c r="AI5" t="n">
-        <v>36.32769197665259</v>
+        <v>65.72579202064881</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32.20662909348515</v>
+        <v>50.27059043368089</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.46614865550487</v>
+        <v>41.44552285314256</v>
       </c>
       <c r="AL5" t="n">
-        <v>40.54763872630809</v>
+        <v>33.90656033314366</v>
       </c>
       <c r="AM5" t="n">
-        <v>35.91554289366709</v>
+        <v>37.6375396220966</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.23684185923521</v>
+        <v>30.97396902977047</v>
       </c>
       <c r="AO5" t="n">
-        <v>25.03803292663245</v>
+        <v>20.89445190690503</v>
       </c>
       <c r="AP5" t="n">
-        <v>16.94652406347812</v>
+        <v>5.360895404789298</v>
       </c>
       <c r="AQ5" t="n">
-        <v>31.75280238367661</v>
+        <v>19.67449151616763</v>
       </c>
       <c r="AR5" t="n">
-        <v>32.4161080583205</v>
+        <v>31.59381833756709</v>
       </c>
       <c r="AS5" t="n">
-        <v>36.22358056751442</v>
+        <v>30.63730707869645</v>
       </c>
       <c r="AT5" t="n">
-        <v>26.51540529995009</v>
+        <v>36.19895933880828</v>
       </c>
       <c r="AU5" t="n">
-        <v>36.78937895099146</v>
+        <v>31.40928457869069</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.469656289311677</v>
+        <v>23.29180030745804</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.317134779578724</v>
+        <v>38.59275202045728</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.313822764591338</v>
+        <v>11.73653201618013</v>
       </c>
     </row>
     <row r="6">
@@ -1301,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7.930576291948308</v>
       </c>
       <c r="D6" t="n">
-        <v>8.01326644883528</v>
+        <v>1.999878956134044</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1313,136 +1313,136 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15.94660462491502</v>
       </c>
       <c r="H6" t="n">
-        <v>7.366220714372469</v>
+        <v>13.53586491253796</v>
       </c>
       <c r="I6" t="n">
-        <v>13.70665827034395</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>36.92586380782967</v>
+        <v>2.00358763413662</v>
       </c>
       <c r="K6" t="n">
-        <v>23.89821505432171</v>
+        <v>7.61919250565031</v>
       </c>
       <c r="L6" t="n">
-        <v>45.89484961556104</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>32.8312260569087</v>
+        <v>31.25923815268953</v>
       </c>
       <c r="N6" t="n">
-        <v>18.59857280672678</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>76.33751049611681</v>
+        <v>19.68025310459006</v>
       </c>
       <c r="P6" t="n">
-        <v>23.02030387101581</v>
+        <v>5.774967918080423</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.05762185614465</v>
+        <v>19.1931212830384</v>
       </c>
       <c r="R6" t="n">
-        <v>32.7862960569993</v>
+        <v>47.43162977325925</v>
       </c>
       <c r="S6" t="n">
-        <v>30.60922830979259</v>
+        <v>32.42360548788749</v>
       </c>
       <c r="T6" t="n">
-        <v>9.732826226059382</v>
+        <v>41.57595514719908</v>
       </c>
       <c r="U6" t="n">
-        <v>45.31055705851861</v>
+        <v>13.76858848493631</v>
       </c>
       <c r="V6" t="n">
-        <v>35.42354168653947</v>
+        <v>7.819786749685692</v>
       </c>
       <c r="W6" t="n">
-        <v>8.797365151336388</v>
+        <v>12.29138607696908</v>
       </c>
       <c r="X6" t="n">
-        <v>10.43064404053483</v>
+        <v>71.67590534158722</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.87219164105823</v>
+        <v>33.13281993219361</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.09056413325212</v>
+        <v>17.24318896176024</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.32611379422053</v>
+        <v>9.688118558329977</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.36900988461341</v>
+        <v>18.57489761228958</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.43672459938768</v>
+        <v>7.47982575938678</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.12656956727372</v>
+        <v>3.301181461458677</v>
       </c>
       <c r="AE6" t="n">
-        <v>10.20052843215922</v>
+        <v>5.339203704357349</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.55973927416792</v>
+        <v>12.8545565572912</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.79686972906627</v>
+        <v>3.893318646192367</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.613614111226357</v>
+        <v>3.622915020432196</v>
       </c>
       <c r="AI6" t="n">
-        <v>15.6492536066846</v>
+        <v>5.830405582693654</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.51779636285371</v>
+        <v>22.57089143706941</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.467240678988811</v>
+        <v>24.59595727544728</v>
       </c>
       <c r="AL6" t="n">
-        <v>11.68998353219847</v>
+        <v>7.755479074100832</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.398354982964452</v>
+        <v>2.54629115183667</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.352478333432987</v>
+        <v>5.705237076587283</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.2216727797127</v>
+        <v>6.477403573653071</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.56713815145695</v>
+        <v>1.317036529974083</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.798230642044315</v>
+        <v>2.544184670470437</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.774465642964423</v>
+        <v>10.01691636284033</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.674622673889697</v>
+        <v>1.942503914149116</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.97451019556293</v>
+        <v>2.565340157069123</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.731441727365436</v>
+        <v>2.539991650275715</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.273183369291321</v>
+        <v>4.52894966352353</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.104144352954127</v>
+        <v>1.105986699113124</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.062538429033405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1453,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.191076378541858</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>34.61301278873685</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>39.5121197222156</v>
+        <v>14.63968158684011</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1468,133 +1468,133 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.87096697463515</v>
+        <v>25.44573537624204</v>
       </c>
       <c r="I7" t="n">
-        <v>63.26281403364259</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>29.49170636435712</v>
+        <v>64.65877103513805</v>
       </c>
       <c r="K7" t="n">
-        <v>31.84216107952896</v>
+        <v>18.75000040190504</v>
       </c>
       <c r="L7" t="n">
-        <v>5.812200658725951</v>
+        <v>5.577389334602071</v>
       </c>
       <c r="M7" t="n">
-        <v>56.46140437350289</v>
+        <v>6.349439205710302</v>
       </c>
       <c r="N7" t="n">
-        <v>25.56358655732744</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.15416340059405</v>
+        <v>11.67878404357787</v>
       </c>
       <c r="P7" t="n">
-        <v>53.43413801342624</v>
+        <v>22.16527481826927</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.29471652859323</v>
+        <v>22.56866895184638</v>
       </c>
       <c r="R7" t="n">
-        <v>39.88818413840308</v>
+        <v>28.66931847563639</v>
       </c>
       <c r="S7" t="n">
-        <v>17.69322422619862</v>
+        <v>56.61046751098345</v>
       </c>
       <c r="T7" t="n">
-        <v>11.99049511321516</v>
+        <v>0.2143243153091383</v>
       </c>
       <c r="U7" t="n">
-        <v>49.51554491396391</v>
+        <v>25.49769486209824</v>
       </c>
       <c r="V7" t="n">
-        <v>32.64991402076235</v>
+        <v>39.30196117120236</v>
       </c>
       <c r="W7" t="n">
-        <v>11.65816911446362</v>
+        <v>51.43236187364344</v>
       </c>
       <c r="X7" t="n">
-        <v>1.826938545684024</v>
+        <v>51.54830408653841</v>
       </c>
       <c r="Y7" t="n">
-        <v>121.442567668233</v>
+        <v>29.29132652238977</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.937394910080142</v>
+        <v>0.9141512633523243</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.755801995223937</v>
+        <v>15.65566862015287</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.347264547421715</v>
+        <v>17.62708031866065</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.08581258872768</v>
+        <v>47.92403497742917</v>
       </c>
       <c r="AD7" t="n">
-        <v>32.74098384785034</v>
+        <v>2.792079904034229</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.023919080579436</v>
+        <v>9.221327919837996</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.719995137673259</v>
+        <v>9.463233446281315</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.917090305950039</v>
+        <v>11.99188944276264</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.995298033087689</v>
+        <v>6.926540195576953</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.337070282206815</v>
+        <v>5.605509716313417</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.80985814262097</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>40.97947326779067</v>
       </c>
       <c r="AL7" t="n">
-        <v>8.871562522242352</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.900536277997806</v>
+        <v>17.11946713851967</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1108227041333336</v>
+        <v>2.032363617995282</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.202767072957387</v>
+        <v>11.29903465325641</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.178843437513321</v>
+        <v>5.801963659685669</v>
       </c>
       <c r="AQ7" t="n">
-        <v>24.10160188906945</v>
+        <v>12.36790310083596</v>
       </c>
       <c r="AR7" t="n">
-        <v>6.389936528144878</v>
+        <v>0.7266061307279283</v>
       </c>
       <c r="AS7" t="n">
-        <v>9.983315362874201</v>
+        <v>2.863854479351621</v>
       </c>
       <c r="AT7" t="n">
-        <v>7.06544133368716</v>
+        <v>8.652001189018288</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>3.96102276285959</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.240204881034587</v>
+        <v>9.495186678356777</v>
       </c>
       <c r="AW7" t="n">
-        <v>12.53350610981152</v>
+        <v>10.20245990768661</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.398809784004903</v>
+        <v>21.335915030851</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8595646195514</v>
+        <v>246.6649362495565</v>
       </c>
       <c r="D8" t="n">
-        <v>18.35535235003004</v>
+        <v>23.14881510304144</v>
       </c>
       <c r="E8" t="n">
-        <v>28.88238014572309</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.59474593296749</v>
+        <v>52.16865363625519</v>
       </c>
       <c r="G8" t="n">
-        <v>7.875962985448881</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>65.27257637552199</v>
+        <v>3.92227392538296</v>
       </c>
       <c r="I8" t="n">
-        <v>60.69111868150436</v>
+        <v>53.73934623258081</v>
       </c>
       <c r="J8" t="n">
-        <v>93.62338713917731</v>
+        <v>29.07176187096364</v>
       </c>
       <c r="K8" t="n">
-        <v>48.11767885183099</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>43.5796001316404</v>
+        <v>13.26884628702898</v>
       </c>
       <c r="M8" t="n">
-        <v>168.6214984912781</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>12.97738519788126</v>
+        <v>1.925111909084062</v>
       </c>
       <c r="O8" t="n">
-        <v>95.32124197400155</v>
+        <v>46.05691859395041</v>
       </c>
       <c r="P8" t="n">
-        <v>39.28525245633062</v>
+        <v>65.51357103053144</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.74024556865681</v>
+        <v>42.19056031073539</v>
       </c>
       <c r="R8" t="n">
-        <v>15.67430279574356</v>
+        <v>95.83794733251966</v>
       </c>
       <c r="S8" t="n">
-        <v>64.77947291116031</v>
+        <v>29.08058942408679</v>
       </c>
       <c r="T8" t="n">
-        <v>65.81438470982938</v>
+        <v>86.44255234166714</v>
       </c>
       <c r="U8" t="n">
-        <v>60.11121803629317</v>
+        <v>44.75971348200774</v>
       </c>
       <c r="V8" t="n">
-        <v>83.34506804949118</v>
+        <v>99.03402291986967</v>
       </c>
       <c r="W8" t="n">
-        <v>93.09370517108816</v>
+        <v>46.02873922627325</v>
       </c>
       <c r="X8" t="n">
-        <v>58.14367971809759</v>
+        <v>53.50975932456434</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.07284382481035</v>
+        <v>34.02350015283182</v>
       </c>
       <c r="Z8" t="n">
-        <v>56.12686737704119</v>
+        <v>49.72017164709138</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.9951998261509</v>
+        <v>118.1855732263977</v>
       </c>
       <c r="AB8" t="n">
-        <v>70.21084801753086</v>
+        <v>94.69047840174328</v>
       </c>
       <c r="AC8" t="n">
-        <v>129.8213909672457</v>
+        <v>105.8497182356368</v>
       </c>
       <c r="AD8" t="n">
-        <v>122.6156684060334</v>
+        <v>150.7662832771298</v>
       </c>
       <c r="AE8" t="n">
-        <v>128.7802087739674</v>
+        <v>10.44788281855089</v>
       </c>
       <c r="AF8" t="n">
-        <v>77.2516807856495</v>
+        <v>104.6203729555289</v>
       </c>
       <c r="AG8" t="n">
-        <v>183.7157517896455</v>
+        <v>156.7494352006977</v>
       </c>
       <c r="AH8" t="n">
-        <v>210.5266540969944</v>
+        <v>28.15720112529653</v>
       </c>
       <c r="AI8" t="n">
-        <v>98.96853602773524</v>
+        <v>51.10408907205012</v>
       </c>
       <c r="AJ8" t="n">
-        <v>84.41973806222489</v>
+        <v>181.0483550856162</v>
       </c>
       <c r="AK8" t="n">
-        <v>58.78136780723352</v>
+        <v>38.47133949201707</v>
       </c>
       <c r="AL8" t="n">
-        <v>71.04796271676742</v>
+        <v>119.2582989223791</v>
       </c>
       <c r="AM8" t="n">
-        <v>95.03331515929462</v>
+        <v>43.63916914474472</v>
       </c>
       <c r="AN8" t="n">
-        <v>54.34787491334673</v>
+        <v>14.26524050809587</v>
       </c>
       <c r="AO8" t="n">
-        <v>25.22705975618478</v>
+        <v>56.21463918160399</v>
       </c>
       <c r="AP8" t="n">
-        <v>21.85830511153519</v>
+        <v>29.62647698467459</v>
       </c>
       <c r="AQ8" t="n">
-        <v>37.74034394002996</v>
+        <v>21.86729593995338</v>
       </c>
       <c r="AR8" t="n">
-        <v>61.63544886139375</v>
+        <v>19.84520620887118</v>
       </c>
       <c r="AS8" t="n">
-        <v>21.15045615473671</v>
+        <v>32.40848544615019</v>
       </c>
       <c r="AT8" t="n">
-        <v>11.26709264489738</v>
+        <v>31.42390446847559</v>
       </c>
       <c r="AU8" t="n">
-        <v>21.4035740541831</v>
+        <v>20.89340091712268</v>
       </c>
       <c r="AV8" t="n">
-        <v>14.15008763382927</v>
+        <v>19.93434449764228</v>
       </c>
       <c r="AW8" t="n">
-        <v>26.06885375050964</v>
+        <v>13.80462270167151</v>
       </c>
       <c r="AX8" t="n">
-        <v>15.04690174062228</v>
+        <v>16.52459752626263</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8.318364588330553</v>
       </c>
       <c r="D9" t="n">
-        <v>5.951652295188546</v>
+        <v>4.175627089215305</v>
       </c>
       <c r="E9" t="n">
-        <v>2.778464049535189</v>
+        <v>3.533111682007823</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.742463814930486</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.111498596908246</v>
+        <v>4.678886242898049</v>
       </c>
       <c r="I9" t="n">
-        <v>6.075402934618007</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.838517370985862</v>
+        <v>10.99217844044306</v>
       </c>
       <c r="K9" t="n">
-        <v>8.243392696368565</v>
+        <v>2.755954498542367</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3348339718866413</v>
+        <v>7.671882388405396</v>
       </c>
       <c r="M9" t="n">
-        <v>5.486222988065379</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.494636063781303</v>
+        <v>2.015933336501183</v>
       </c>
       <c r="O9" t="n">
-        <v>4.185798026282872</v>
+        <v>2.270207528168116</v>
       </c>
       <c r="P9" t="n">
-        <v>7.45276414303655</v>
+        <v>2.122268153733037</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.888667353698011</v>
+        <v>4.797977483479775</v>
       </c>
       <c r="R9" t="n">
-        <v>1.96692040328752</v>
+        <v>1.615412070165301</v>
       </c>
       <c r="S9" t="n">
-        <v>2.839614028419118</v>
+        <v>4.731239524027377</v>
       </c>
       <c r="T9" t="n">
-        <v>4.550408100842356</v>
+        <v>5.420893168761281</v>
       </c>
       <c r="U9" t="n">
-        <v>1.104899033205621</v>
+        <v>5.108516560900292</v>
       </c>
       <c r="V9" t="n">
-        <v>4.725764271508081</v>
+        <v>7.394345053419546</v>
       </c>
       <c r="W9" t="n">
-        <v>4.322470187513378</v>
+        <v>8.103856315524629</v>
       </c>
       <c r="X9" t="n">
-        <v>5.347212296474757</v>
+        <v>5.549974594035878</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.014854873713459</v>
+        <v>3.883597656279867</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.739855976262139</v>
+        <v>2.876106156929087</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.278113734588795</v>
+        <v>4.524486277121986</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.977304127628094</v>
+        <v>8.390937069556625</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.692207975326044</v>
+        <v>1.818316183197022</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.028504149785988</v>
+        <v>4.088980528450058</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.297950251673154</v>
+        <v>2.993466902418962</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.347318512421708</v>
+        <v>8.369493951802005</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.428548802684868</v>
+        <v>6.849311704340169</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.229060771701958</v>
+        <v>6.634171434802951</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.917580739304576</v>
+        <v>8.242993086570825</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.514971172213051</v>
+        <v>3.723283626714463</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.40410102766662</v>
+        <v>8.487803299021605</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.925278232406885</v>
+        <v>4.667884913927902</v>
       </c>
       <c r="AM9" t="n">
-        <v>10.24887777883515</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.42884082944334</v>
+        <v>2.486105761479303</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.183980174683899</v>
+        <v>2.274926707478921</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.067308233719701</v>
+        <v>4.158295227762362</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.22951262166072</v>
+        <v>7.598269035459758</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.566702479644252</v>
+        <v>3.309306012965835</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.943866553961235</v>
+        <v>4.288346075222111</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.926670845859435</v>
+        <v>4.637587900399719</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.560523416694738</v>
+        <v>6.587812344799375</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.75324621782408</v>
+        <v>4.892598445009815</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.196353168252673</v>
+        <v>4.682912039769447</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.261568683185977</v>
+        <v>4.534344925365218</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>17.33522665430436</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>83.07810365815251</v>
       </c>
       <c r="E10" t="n">
-        <v>16.26732360001037</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5.832403084933162</v>
       </c>
       <c r="G10" t="n">
-        <v>13.43242825768055</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.92990926145436</v>
+        <v>26.71434330927774</v>
       </c>
       <c r="I10" t="n">
-        <v>35.62722517628585</v>
+        <v>145.6885585965623</v>
       </c>
       <c r="J10" t="n">
-        <v>80.18286768077122</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>42.27719579072926</v>
+        <v>141.7788892073343</v>
       </c>
       <c r="L10" t="n">
-        <v>86.52166294157846</v>
+        <v>42.35367396923215</v>
       </c>
       <c r="M10" t="n">
-        <v>58.02614239437484</v>
+        <v>24.76024256577629</v>
       </c>
       <c r="N10" t="n">
-        <v>10.12153894914696</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>43.96606419135806</v>
+        <v>45.93976012520486</v>
       </c>
       <c r="P10" t="n">
-        <v>119.8253732692146</v>
+        <v>97.39940441926618</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.88294049529365</v>
+        <v>66.11548170964167</v>
       </c>
       <c r="R10" t="n">
-        <v>4.074532059786637</v>
+        <v>43.24746549919617</v>
       </c>
       <c r="S10" t="n">
-        <v>66.33688910722302</v>
+        <v>73.28540504834099</v>
       </c>
       <c r="T10" t="n">
-        <v>83.88681821491241</v>
+        <v>53.11790606862348</v>
       </c>
       <c r="U10" t="n">
-        <v>47.48900004366697</v>
+        <v>45.73087523614981</v>
       </c>
       <c r="V10" t="n">
-        <v>100.6636176400385</v>
+        <v>57.87795204480365</v>
       </c>
       <c r="W10" t="n">
-        <v>13.18415809587065</v>
+        <v>66.45244729649283</v>
       </c>
       <c r="X10" t="n">
-        <v>57.22636676301601</v>
+        <v>97.77649668390842</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.7754508460724</v>
+        <v>68.98903309240741</v>
       </c>
       <c r="Z10" t="n">
-        <v>95.44593044688307</v>
+        <v>53.04804558039643</v>
       </c>
       <c r="AA10" t="n">
-        <v>46.44315197391526</v>
+        <v>19.4771656967598</v>
       </c>
       <c r="AB10" t="n">
-        <v>80.16256505689501</v>
+        <v>120.6316446441016</v>
       </c>
       <c r="AC10" t="n">
-        <v>69.48976544795197</v>
+        <v>18.92680727107463</v>
       </c>
       <c r="AD10" t="n">
-        <v>88.96415179678166</v>
+        <v>18.95843255818778</v>
       </c>
       <c r="AE10" t="n">
-        <v>52.57002891554983</v>
+        <v>182.1746030453621</v>
       </c>
       <c r="AF10" t="n">
-        <v>85.39079614551079</v>
+        <v>84.70107003716944</v>
       </c>
       <c r="AG10" t="n">
-        <v>76.02531665099697</v>
+        <v>37.16151451884046</v>
       </c>
       <c r="AH10" t="n">
-        <v>108.2722894921078</v>
+        <v>64.3266586035173</v>
       </c>
       <c r="AI10" t="n">
-        <v>59.91288509110561</v>
+        <v>52.59614389013047</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41.86524152237502</v>
+        <v>35.13603355905882</v>
       </c>
       <c r="AK10" t="n">
-        <v>29.60767041050859</v>
+        <v>121.7396209783989</v>
       </c>
       <c r="AL10" t="n">
-        <v>21.78091667839646</v>
+        <v>52.47974707223923</v>
       </c>
       <c r="AM10" t="n">
-        <v>57.7774678447405</v>
+        <v>12.82800420775818</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.22956868934554</v>
+        <v>15.07073035272817</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.32879506821188</v>
+        <v>17.99707326981087</v>
       </c>
       <c r="AP10" t="n">
-        <v>11.3605491240034</v>
+        <v>6.352122822115077</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23.80158286787799</v>
+        <v>45.05872004715219</v>
       </c>
       <c r="AR10" t="n">
-        <v>19.47572934523553</v>
+        <v>6.88580844806953</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.488248759657933</v>
+        <v>16.5928903855661</v>
       </c>
       <c r="AT10" t="n">
-        <v>20.83677248600678</v>
+        <v>2.918734610191832</v>
       </c>
       <c r="AU10" t="n">
-        <v>19.08482011860517</v>
+        <v>28.43074654756795</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.960265687069426</v>
+        <v>11.54126389585046</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.69973338553922</v>
+        <v>6.762358349394104</v>
       </c>
       <c r="AX10" t="n">
-        <v>19.39956873936379</v>
+        <v>7.153907978975968</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.06375054073715</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>19.67626059854364</v>
+        <v>0.2331696869805047</v>
       </c>
       <c r="F11" t="n">
-        <v>33.4271000146413</v>
+        <v>49.90575834793933</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>21.4890484323279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.90600721975987</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>15.68080260025875</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>35.109252336914</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>23.84830093371407</v>
+        <v>40.80455161617494</v>
       </c>
       <c r="M11" t="n">
-        <v>41.31349269252282</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>157.4786690223842</v>
+        <v>1.062664021967405</v>
       </c>
       <c r="O11" t="n">
-        <v>32.21580644364562</v>
+        <v>19.71184523536752</v>
       </c>
       <c r="P11" t="n">
-        <v>26.73516870626936</v>
+        <v>0.2498572682931375</v>
       </c>
       <c r="Q11" t="n">
-        <v>94.38605565211876</v>
+        <v>7.58239828352256</v>
       </c>
       <c r="R11" t="n">
-        <v>160.2295941669822</v>
+        <v>44.48377730563741</v>
       </c>
       <c r="S11" t="n">
-        <v>95.44082715352998</v>
+        <v>62.57495421140786</v>
       </c>
       <c r="T11" t="n">
-        <v>72.10266707085324</v>
+        <v>52.87597282218641</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>65.69265802030078</v>
       </c>
       <c r="V11" t="n">
-        <v>20.04187227648952</v>
+        <v>65.22169354086506</v>
       </c>
       <c r="W11" t="n">
-        <v>47.41215084193285</v>
+        <v>71.26273604844089</v>
       </c>
       <c r="X11" t="n">
-        <v>54.71269863131663</v>
+        <v>28.4397307539122</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.5013075056994</v>
+        <v>47.47639830955138</v>
       </c>
       <c r="Z11" t="n">
-        <v>33.39009781211833</v>
+        <v>30.98028000758014</v>
       </c>
       <c r="AA11" t="n">
-        <v>61.93534213953815</v>
+        <v>24.47741877770837</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>15.65734886184191</v>
       </c>
       <c r="AC11" t="n">
-        <v>33.84915817503288</v>
+        <v>24.35938019081536</v>
       </c>
       <c r="AD11" t="n">
-        <v>46.5942412056419</v>
+        <v>41.36638028789889</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.537714118381349</v>
+        <v>35.07058099191902</v>
       </c>
       <c r="AF11" t="n">
-        <v>26.4152551774345</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>32.71616501222216</v>
+        <v>60.66003578199278</v>
       </c>
       <c r="AH11" t="n">
-        <v>23.79029921710018</v>
+        <v>18.31376248972525</v>
       </c>
       <c r="AI11" t="n">
-        <v>20.55989371503347</v>
+        <v>38.47201538719845</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24.99508461369256</v>
+        <v>31.74009273690483</v>
       </c>
       <c r="AK11" t="n">
-        <v>21.67927405504879</v>
+        <v>29.47734912181744</v>
       </c>
       <c r="AL11" t="n">
-        <v>25.61877191121353</v>
+        <v>38.97279541189363</v>
       </c>
       <c r="AM11" t="n">
-        <v>34.66095089182021</v>
+        <v>1.551383075369783</v>
       </c>
       <c r="AN11" t="n">
-        <v>25.73054833110628</v>
+        <v>54.50774751403119</v>
       </c>
       <c r="AO11" t="n">
-        <v>33.70807053245063</v>
+        <v>28.68710892949635</v>
       </c>
       <c r="AP11" t="n">
-        <v>20.93729207539797</v>
+        <v>26.8442005248378</v>
       </c>
       <c r="AQ11" t="n">
-        <v>28.63080588471377</v>
+        <v>6.9527153768304</v>
       </c>
       <c r="AR11" t="n">
-        <v>27.80698794538899</v>
+        <v>24.14482759230268</v>
       </c>
       <c r="AS11" t="n">
-        <v>21.57432524982905</v>
+        <v>32.07740625101241</v>
       </c>
       <c r="AT11" t="n">
-        <v>20.4504264491256</v>
+        <v>15.65287374403889</v>
       </c>
       <c r="AU11" t="n">
-        <v>24.06653969836893</v>
+        <v>1.83007186077844</v>
       </c>
       <c r="AV11" t="n">
-        <v>44.91632323677153</v>
+        <v>2.377345781030582</v>
       </c>
       <c r="AW11" t="n">
-        <v>24.55023296187095</v>
+        <v>23.86145732562527</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.777147832258311</v>
+        <v>32.67456049648812</v>
       </c>
     </row>
     <row r="12">
@@ -2219,142 +2219,142 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5.604026788727399</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>11.73626036563747</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>9.307257243455226</v>
       </c>
       <c r="H12" t="n">
-        <v>16.25592077391178</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.03734065867943</v>
+        <v>5.175163290774389</v>
       </c>
       <c r="J12" t="n">
-        <v>10.43100110781597</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>10.44941090707786</v>
+        <v>1.964350086871294</v>
       </c>
       <c r="L12" t="n">
-        <v>8.794014242154878</v>
+        <v>9.564610406859329</v>
       </c>
       <c r="M12" t="n">
-        <v>23.76813935020924</v>
+        <v>26.15848537161214</v>
       </c>
       <c r="N12" t="n">
-        <v>32.84779595136491</v>
+        <v>11.69517069815069</v>
       </c>
       <c r="O12" t="n">
-        <v>40.66934709287293</v>
+        <v>10.52893157717607</v>
       </c>
       <c r="P12" t="n">
-        <v>2.923975647251535</v>
+        <v>23.89596253642335</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.277852106629956</v>
+        <v>19.17695669297085</v>
       </c>
       <c r="R12" t="n">
-        <v>14.05568589366935</v>
+        <v>67.72992649357415</v>
       </c>
       <c r="S12" t="n">
-        <v>75.69429529985099</v>
+        <v>18.75289874297649</v>
       </c>
       <c r="T12" t="n">
-        <v>25.62013393226974</v>
+        <v>21.44198754125231</v>
       </c>
       <c r="U12" t="n">
-        <v>15.04198726960997</v>
+        <v>42.76758448306491</v>
       </c>
       <c r="V12" t="n">
-        <v>38.29621549052463</v>
+        <v>6.073442091974965</v>
       </c>
       <c r="W12" t="n">
-        <v>17.8373858868415</v>
+        <v>27.61257066189982</v>
       </c>
       <c r="X12" t="n">
-        <v>49.78398353164036</v>
+        <v>35.05615778780031</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.20805566682162</v>
+        <v>3.573232900631494</v>
       </c>
       <c r="Z12" t="n">
-        <v>33.4798363630912</v>
+        <v>23.18781957192938</v>
       </c>
       <c r="AA12" t="n">
-        <v>15.41729622457433</v>
+        <v>8.085272070558906</v>
       </c>
       <c r="AB12" t="n">
-        <v>23.92030352053186</v>
+        <v>13.20995078991229</v>
       </c>
       <c r="AC12" t="n">
-        <v>22.01740371125363</v>
+        <v>6.544657593912097</v>
       </c>
       <c r="AD12" t="n">
-        <v>33.00258682248593</v>
+        <v>2.657426849045563</v>
       </c>
       <c r="AE12" t="n">
-        <v>10.15464409454887</v>
+        <v>9.935288117319608</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.671388722675092</v>
+        <v>24.60821471954851</v>
       </c>
       <c r="AG12" t="n">
-        <v>25.97104363613322</v>
+        <v>15.7104832558353</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.04807455009495</v>
+        <v>17.35740063729303</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.044817128367029</v>
+        <v>27.64507261696522</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22.43145263781919</v>
+        <v>5.764910932722641</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.859679910103841</v>
+        <v>7.468729139935919</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.350105650005037</v>
+        <v>19.35086410404374</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.98389242513259</v>
+        <v>3.305997115377528</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.171072548930607</v>
+        <v>3.965785646787556</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.136869896336574</v>
+        <v>1.765013564166269</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.9582355399111061</v>
+        <v>4.057232911516328</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.66137557009462</v>
+        <v>1.914375354369384</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.468291117325053</v>
+        <v>7.482567223793383</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1.265682805061317</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.095732565922679</v>
+        <v>5.952084560543327</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.465181715003911</v>
+        <v>3.460879678749489</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.752017732471219</v>
+        <v>5.252344967957519</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.292202537933465</v>
+        <v>2.280460460752328</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.35701307045352</v>
+        <v>1.040459823077172</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>16.84718703215618</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>23.97047582508061</v>
       </c>
       <c r="E13" t="n">
-        <v>17.75007130031811</v>
+        <v>24.96870937199776</v>
       </c>
       <c r="F13" t="n">
-        <v>12.93304942295376</v>
+        <v>32.84684552714281</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17.76783508070368</v>
+        <v>21.06433119505393</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44165320394574</v>
+        <v>12.16627019669269</v>
       </c>
       <c r="J13" t="n">
-        <v>18.73080075012071</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>17.97955201705818</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>40.92682261737086</v>
+        <v>20.62931373490089</v>
       </c>
       <c r="M13" t="n">
-        <v>3.705574587463895</v>
+        <v>52.95452334926966</v>
       </c>
       <c r="N13" t="n">
-        <v>141.5014629273749</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>13.12645899652771</v>
+        <v>7.163242233559362</v>
       </c>
       <c r="P13" t="n">
-        <v>15.03121152264346</v>
+        <v>31.17803114273628</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.75210095274589</v>
+        <v>53.65821989784584</v>
       </c>
       <c r="R13" t="n">
-        <v>48.79519086133836</v>
+        <v>23.19538793798266</v>
       </c>
       <c r="S13" t="n">
-        <v>13.9369571015157</v>
+        <v>34.84662200590873</v>
       </c>
       <c r="T13" t="n">
-        <v>31.40023681054651</v>
+        <v>42.2192712527647</v>
       </c>
       <c r="U13" t="n">
-        <v>73.89410285479268</v>
+        <v>33.29835042318196</v>
       </c>
       <c r="V13" t="n">
-        <v>28.34286823912821</v>
+        <v>9.218765811385527</v>
       </c>
       <c r="W13" t="n">
-        <v>17.08919353631279</v>
+        <v>90.38785714522766</v>
       </c>
       <c r="X13" t="n">
-        <v>35.24330341482003</v>
+        <v>38.46756187591409</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>36.53119911993104</v>
       </c>
       <c r="Z13" t="n">
-        <v>40.5707427767823</v>
+        <v>38.86454421399807</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.166892175927148</v>
+        <v>19.5090905630091</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.636676801769482</v>
+        <v>6.58595780220128</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.321669109121395</v>
+        <v>8.848476675713748</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.856667820657783</v>
+        <v>27.01743034290165</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.67782568037353</v>
+        <v>6.732337436509159</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.035696488457675</v>
+        <v>51.08898072258023</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.9699235400245938</v>
+        <v>5.064880436618543</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.25810551287915</v>
+        <v>17.10043624249521</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3.425107310634241</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.993720971296709</v>
+        <v>16.65509945713414</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.07700159659927</v>
+        <v>30.69702351338229</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>19.10953254600227</v>
+        <v>10.49287750473072</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.21326849968747</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>4.747182754185737</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.877247489581718</v>
+        <v>12.50374211624177</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.303225462897291</v>
+        <v>27.49447477474676</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.249092178862258</v>
+        <v>7.165465033829904</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.5094027321726711</v>
+        <v>9.442907129977369</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.4423255424452442</v>
+        <v>57.40487839833342</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.683513925135251</v>
+        <v>5.96738129294795</v>
       </c>
       <c r="AV13" t="n">
-        <v>7.787529471392951</v>
+        <v>4.922066329906521</v>
       </c>
       <c r="AW13" t="n">
-        <v>13.72771386161756</v>
+        <v>18.91471743268541</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.734038098487753</v>
+        <v>25.58962125835168</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25.02958443375423</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>39.44750668040498</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>31.41640443989899</v>
+        <v>73.19804123293085</v>
       </c>
       <c r="G14" t="n">
-        <v>24.54591164375038</v>
+        <v>48.04314628665538</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>18.97232586538765</v>
       </c>
       <c r="I14" t="n">
-        <v>2.260608599036419</v>
+        <v>53.47732507361413</v>
       </c>
       <c r="J14" t="n">
-        <v>528.3628796057811</v>
+        <v>338.7394210251807</v>
       </c>
       <c r="K14" t="n">
-        <v>77.34810394233266</v>
+        <v>30.12310117349416</v>
       </c>
       <c r="L14" t="n">
-        <v>24.89060066762811</v>
+        <v>8.431617539184092</v>
       </c>
       <c r="M14" t="n">
-        <v>52.19169975630476</v>
+        <v>55.74000837662955</v>
       </c>
       <c r="N14" t="n">
-        <v>25.72240869036545</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>73.42573514392353</v>
+        <v>104.9722715999248</v>
       </c>
       <c r="P14" t="n">
-        <v>43.04679441479577</v>
+        <v>106.0453100074764</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.60976948958667</v>
+        <v>11.82006506845861</v>
       </c>
       <c r="R14" t="n">
-        <v>161.5324293978956</v>
+        <v>64.90196425752613</v>
       </c>
       <c r="S14" t="n">
-        <v>41.62043088695796</v>
+        <v>97.89744755593119</v>
       </c>
       <c r="T14" t="n">
-        <v>88.31061674595507</v>
+        <v>27.54898047893164</v>
       </c>
       <c r="U14" t="n">
-        <v>53.8294890531511</v>
+        <v>62.02126909065765</v>
       </c>
       <c r="V14" t="n">
-        <v>16.28847537969631</v>
+        <v>77.09114286103777</v>
       </c>
       <c r="W14" t="n">
-        <v>20.318679814545</v>
+        <v>29.16188466446249</v>
       </c>
       <c r="X14" t="n">
-        <v>16.20545834136147</v>
+        <v>50.14470441087187</v>
       </c>
       <c r="Y14" t="n">
-        <v>75.66823955313446</v>
+        <v>20.0074944583777</v>
       </c>
       <c r="Z14" t="n">
-        <v>53.92182590705956</v>
+        <v>61.4468193120008</v>
       </c>
       <c r="AA14" t="n">
-        <v>90.28310837129467</v>
+        <v>94.25155374423291</v>
       </c>
       <c r="AB14" t="n">
-        <v>97.00373461872856</v>
+        <v>167.5599240238456</v>
       </c>
       <c r="AC14" t="n">
-        <v>92.18024619392374</v>
+        <v>92.79072917970313</v>
       </c>
       <c r="AD14" t="n">
-        <v>129.4243431123127</v>
+        <v>20.9949980311501</v>
       </c>
       <c r="AE14" t="n">
-        <v>68.48666030666337</v>
+        <v>57.20366579243905</v>
       </c>
       <c r="AF14" t="n">
-        <v>141.9615560332555</v>
+        <v>35.06086989075509</v>
       </c>
       <c r="AG14" t="n">
-        <v>42.38505387246888</v>
+        <v>132.237653447293</v>
       </c>
       <c r="AH14" t="n">
-        <v>68.5730402080128</v>
+        <v>166.9711762772696</v>
       </c>
       <c r="AI14" t="n">
-        <v>66.58587550115114</v>
+        <v>115.9303043632733</v>
       </c>
       <c r="AJ14" t="n">
-        <v>101.8842609516575</v>
+        <v>120.8174361039924</v>
       </c>
       <c r="AK14" t="n">
-        <v>93.69804513501039</v>
+        <v>72.61334741697408</v>
       </c>
       <c r="AL14" t="n">
-        <v>38.16038076840892</v>
+        <v>150.7728050142605</v>
       </c>
       <c r="AM14" t="n">
-        <v>55.39083583837596</v>
+        <v>59.89747863231695</v>
       </c>
       <c r="AN14" t="n">
-        <v>50.23002909636782</v>
+        <v>19.2935690750191</v>
       </c>
       <c r="AO14" t="n">
-        <v>29.66159062259742</v>
+        <v>40.64660749504501</v>
       </c>
       <c r="AP14" t="n">
-        <v>48.17675037506647</v>
+        <v>23.8416073736821</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18.05864301299842</v>
+        <v>33.08814154509921</v>
       </c>
       <c r="AR14" t="n">
-        <v>20.41213620391694</v>
+        <v>25.77151192837676</v>
       </c>
       <c r="AS14" t="n">
-        <v>18.08873804644831</v>
+        <v>27.16164025629008</v>
       </c>
       <c r="AT14" t="n">
-        <v>16.20389999403085</v>
+        <v>22.25081097178951</v>
       </c>
       <c r="AU14" t="n">
-        <v>17.40117096989201</v>
+        <v>53.33269959539089</v>
       </c>
       <c r="AV14" t="n">
-        <v>39.39023798903909</v>
+        <v>50.46543826174451</v>
       </c>
       <c r="AW14" t="n">
-        <v>64.42192753727686</v>
+        <v>21.27092102172772</v>
       </c>
       <c r="AX14" t="n">
-        <v>22.98369983995163</v>
+        <v>19.3236050714106</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.356281077659754</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.474001510682482</v>
+        <v>1.315960630748657</v>
       </c>
       <c r="E15" t="n">
-        <v>4.17485255953763</v>
+        <v>14.95701144925875</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>6.437881766345692</v>
       </c>
       <c r="G15" t="n">
-        <v>5.447563168835091</v>
+        <v>3.079300142120529</v>
       </c>
       <c r="H15" t="n">
-        <v>2.800922817735618</v>
+        <v>13.05479957867792</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6670534443948978</v>
+        <v>0.07988935470372671</v>
       </c>
       <c r="J15" t="n">
-        <v>9.346032515291077</v>
+        <v>7.370442428202214</v>
       </c>
       <c r="K15" t="n">
-        <v>2.622475366605531</v>
+        <v>1.673533252368286</v>
       </c>
       <c r="L15" t="n">
-        <v>8.619757650983024</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>13.29026244822252</v>
+        <v>8.331539296818992</v>
       </c>
       <c r="N15" t="n">
-        <v>4.322742951384223</v>
+        <v>3.162030551718316</v>
       </c>
       <c r="O15" t="n">
-        <v>11.86825885848137</v>
+        <v>0.7859251270438041</v>
       </c>
       <c r="P15" t="n">
-        <v>4.378824394630012</v>
+        <v>1.893996595052618</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.057602962929227</v>
+        <v>1.587917469236023</v>
       </c>
       <c r="R15" t="n">
-        <v>4.314700345743268</v>
+        <v>2.939541461578322</v>
       </c>
       <c r="S15" t="n">
-        <v>8.378163167658409</v>
+        <v>6.695184657331307</v>
       </c>
       <c r="T15" t="n">
-        <v>4.920796212695317</v>
+        <v>10.34275267090288</v>
       </c>
       <c r="U15" t="n">
-        <v>3.314448147709408</v>
+        <v>6.798034883071005</v>
       </c>
       <c r="V15" t="n">
-        <v>2.160639817437307</v>
+        <v>9.842378650362592</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>5.043778677842215</v>
       </c>
       <c r="X15" t="n">
-        <v>5.577388609068485</v>
+        <v>3.388756018369752</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.914859158246288</v>
+        <v>3.868357412010615</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.794022485085432</v>
+        <v>5.032668511497748</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.030183840408787</v>
+        <v>2.853460295792826</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.624137264578172</v>
+        <v>4.731260456238615</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.602655707140734</v>
+        <v>7.117053399885834</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.881708473870275</v>
+        <v>5.640168418646073</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.522242201599934</v>
+        <v>5.625716656186767</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.797976375126592</v>
+        <v>2.686591302695426</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.523841474033351</v>
+        <v>7.140375475371639</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.96179422301015</v>
+        <v>4.233303541261742</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.242081128646594</v>
+        <v>4.738292726699975</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.00302340530967</v>
+        <v>6.623335589782261</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.678018317975785</v>
+        <v>7.757210538489382</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.620241811379154</v>
+        <v>5.311802698253667</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.20472345323082</v>
+        <v>2.232801296825638</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.019394801007603</v>
+        <v>3.606229384084525</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.346505739818197</v>
+        <v>3.150337025016527</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.034629859637459</v>
+        <v>3.058769312047685</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6.748502662761058</v>
+        <v>2.540789871582314</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.229904212474592</v>
+        <v>2.453653665569339</v>
       </c>
       <c r="AS15" t="n">
-        <v>6.837184950543516</v>
+        <v>0.4898742497572011</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.308630883595337</v>
+        <v>4.412373253212989</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.843573570057702</v>
+        <v>4.615054312818676</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.131950386001208</v>
+        <v>4.66641994537804</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.7399207359965162</v>
+        <v>4.135343754727518</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.591097957691522</v>
+        <v>6.631286554217476</v>
       </c>
     </row>
     <row r="16">
@@ -2827,142 +2827,142 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>19.0647822501997</v>
+        <v>23.24637054562816</v>
       </c>
       <c r="F16" t="n">
-        <v>20.25871435909119</v>
+        <v>53.36461276613288</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>157.2301665508564</v>
       </c>
       <c r="H16" t="n">
-        <v>5.834362017695163</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.91694683303172</v>
+        <v>37.8548863745016</v>
       </c>
       <c r="J16" t="n">
-        <v>58.88471229097179</v>
+        <v>2.840000720532464</v>
       </c>
       <c r="K16" t="n">
-        <v>29.90098551755692</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.161163463753361</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>260.6798478199967</v>
+        <v>89.4063525557404</v>
       </c>
       <c r="N16" t="n">
-        <v>41.9352274191527</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>98.18004105075086</v>
+        <v>43.70468069590986</v>
       </c>
       <c r="P16" t="n">
-        <v>45.56979919112765</v>
+        <v>114.006313183013</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3707975404062</v>
+        <v>129.4322971122263</v>
       </c>
       <c r="R16" t="n">
-        <v>85.85841366207222</v>
+        <v>69.95413933801386</v>
       </c>
       <c r="S16" t="n">
-        <v>115.6825531872061</v>
+        <v>26.23369890801134</v>
       </c>
       <c r="T16" t="n">
-        <v>27.83174282132455</v>
+        <v>50.3899224265469</v>
       </c>
       <c r="U16" t="n">
-        <v>80.88462772103175</v>
+        <v>44.20908063184175</v>
       </c>
       <c r="V16" t="n">
-        <v>55.79420213065613</v>
+        <v>32.6584960245311</v>
       </c>
       <c r="W16" t="n">
-        <v>97.31595905175914</v>
+        <v>184.2639380211537</v>
       </c>
       <c r="X16" t="n">
-        <v>21.8560982717986</v>
+        <v>49.94337560509533</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.46298588389995</v>
+        <v>161.6382915848604</v>
       </c>
       <c r="Z16" t="n">
-        <v>43.5912357919961</v>
+        <v>13.40659141372674</v>
       </c>
       <c r="AA16" t="n">
-        <v>78.05845392796692</v>
+        <v>71.29728211565516</v>
       </c>
       <c r="AB16" t="n">
-        <v>60.55275902201777</v>
+        <v>95.85259787613826</v>
       </c>
       <c r="AC16" t="n">
-        <v>102.0772123381639</v>
+        <v>118.0945755928012</v>
       </c>
       <c r="AD16" t="n">
-        <v>70.95921102963304</v>
+        <v>113.6237099962851</v>
       </c>
       <c r="AE16" t="n">
-        <v>52.68745475264781</v>
+        <v>100.414114536015</v>
       </c>
       <c r="AF16" t="n">
-        <v>74.99546604022815</v>
+        <v>20.18532216198216</v>
       </c>
       <c r="AG16" t="n">
-        <v>38.36387666260826</v>
+        <v>74.27003597702149</v>
       </c>
       <c r="AH16" t="n">
-        <v>92.32215793405902</v>
+        <v>23.27088344509323</v>
       </c>
       <c r="AI16" t="n">
-        <v>67.49413266772362</v>
+        <v>46.6543445154791</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34.0523633348901</v>
+        <v>78.00120152140673</v>
       </c>
       <c r="AK16" t="n">
-        <v>87.02872071723942</v>
+        <v>37.24985865272288</v>
       </c>
       <c r="AL16" t="n">
-        <v>8.767748524825931</v>
+        <v>64.27749636409703</v>
       </c>
       <c r="AM16" t="n">
-        <v>39.48221264418691</v>
+        <v>38.58014756985857</v>
       </c>
       <c r="AN16" t="n">
-        <v>66.63496789632664</v>
+        <v>17.67870433867038</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.022068151527037</v>
+        <v>11.9990124834044</v>
       </c>
       <c r="AP16" t="n">
-        <v>10.48883276023889</v>
+        <v>11.61457719152212</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7.801560401230435</v>
+        <v>4.376526083963935</v>
       </c>
       <c r="AR16" t="n">
-        <v>8.33997096600565</v>
+        <v>17.03476966808231</v>
       </c>
       <c r="AS16" t="n">
-        <v>7.735594093465691</v>
+        <v>18.25189818309096</v>
       </c>
       <c r="AT16" t="n">
-        <v>14.08069973317092</v>
+        <v>29.51712614679463</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.77469747221613</v>
+        <v>5.104786367648541</v>
       </c>
       <c r="AV16" t="n">
-        <v>17.54172381663744</v>
+        <v>22.2785363866046</v>
       </c>
       <c r="AW16" t="n">
-        <v>13.13232035876939</v>
+        <v>22.27002304004835</v>
       </c>
       <c r="AX16" t="n">
-        <v>10.78119920805712</v>
+        <v>37.9659691636372</v>
       </c>
     </row>
     <row r="17">
@@ -2979,142 +2979,142 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.41245801182031</v>
+        <v>15.24021454396826</v>
       </c>
       <c r="F17" t="n">
-        <v>14.54967763471445</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22.28650788763041</v>
+        <v>8.122202032894171</v>
       </c>
       <c r="I17" t="n">
-        <v>23.34598007947745</v>
+        <v>8.2066136653036</v>
       </c>
       <c r="J17" t="n">
-        <v>70.22229905609916</v>
+        <v>33.18066863268616</v>
       </c>
       <c r="K17" t="n">
-        <v>52.17592473674048</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>53.63783218094478</v>
+        <v>25.83649094850631</v>
       </c>
       <c r="N17" t="n">
-        <v>20.06282268173874</v>
+        <v>16.70708257992923</v>
       </c>
       <c r="O17" t="n">
-        <v>100.6652399617813</v>
+        <v>76.13812077311387</v>
       </c>
       <c r="P17" t="n">
-        <v>69.26335380330919</v>
+        <v>32.64743125892258</v>
       </c>
       <c r="Q17" t="n">
-        <v>84.21524540180238</v>
+        <v>38.31090630867386</v>
       </c>
       <c r="R17" t="n">
-        <v>15.13732644970937</v>
+        <v>60.52702546784464</v>
       </c>
       <c r="S17" t="n">
-        <v>73.20431607199225</v>
+        <v>67.04570302732097</v>
       </c>
       <c r="T17" t="n">
-        <v>47.24801961012504</v>
+        <v>18.46523748478165</v>
       </c>
       <c r="U17" t="n">
-        <v>66.96925212463108</v>
+        <v>94.08301552425026</v>
       </c>
       <c r="V17" t="n">
-        <v>74.77954999725851</v>
+        <v>32.68302636675335</v>
       </c>
       <c r="W17" t="n">
-        <v>74.85861137308443</v>
+        <v>37.90600899671143</v>
       </c>
       <c r="X17" t="n">
-        <v>52.4543637881763</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.51011127276618</v>
+        <v>176.7411612201868</v>
       </c>
       <c r="Z17" t="n">
-        <v>91.3622734451565</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>42.71003407549726</v>
+        <v>72.89658411084596</v>
       </c>
       <c r="AB17" t="n">
-        <v>20.19156580555494</v>
+        <v>38.36470031040078</v>
       </c>
       <c r="AC17" t="n">
-        <v>23.60484183726732</v>
+        <v>61.53286973773746</v>
       </c>
       <c r="AD17" t="n">
-        <v>28.66428543184914</v>
+        <v>30.86452385024142</v>
       </c>
       <c r="AE17" t="n">
-        <v>44.05585039755395</v>
+        <v>24.62198837293138</v>
       </c>
       <c r="AF17" t="n">
-        <v>15.61887004651336</v>
+        <v>31.7553226853968</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.550389834365742</v>
+        <v>28.10172607928495</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>41.65631818068998</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.526971624436417</v>
+        <v>36.30185537120374</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23.86805523974008</v>
+        <v>181.4385432752771</v>
       </c>
       <c r="AK17" t="n">
-        <v>37.95249944476701</v>
+        <v>14.99201227622079</v>
       </c>
       <c r="AL17" t="n">
-        <v>26.96100999603752</v>
+        <v>17.89590421186419</v>
       </c>
       <c r="AM17" t="n">
-        <v>3.535442040412689</v>
+        <v>28.8617744296914</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.326101336995693</v>
+        <v>34.26167351357292</v>
       </c>
       <c r="AO17" t="n">
-        <v>22.12070870874829</v>
+        <v>20.27520664569755</v>
       </c>
       <c r="AP17" t="n">
-        <v>12.42500371120991</v>
+        <v>29.661931367162</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20.75641800519627</v>
+        <v>7.854100451553679</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>32.32523168750574</v>
       </c>
       <c r="AS17" t="n">
-        <v>24.81548273662306</v>
+        <v>14.3022779341164</v>
       </c>
       <c r="AT17" t="n">
-        <v>36.47087214401549</v>
+        <v>24.79997494055652</v>
       </c>
       <c r="AU17" t="n">
-        <v>20.71041025273573</v>
+        <v>24.8246588491868</v>
       </c>
       <c r="AV17" t="n">
-        <v>24.59640673683064</v>
+        <v>35.04831832103454</v>
       </c>
       <c r="AW17" t="n">
-        <v>19.26129477242416</v>
+        <v>22.18758941891415</v>
       </c>
       <c r="AX17" t="n">
-        <v>14.2237820649331</v>
+        <v>16.44662980828809</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16.28252176506213</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>11.72290703774226</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.855480498314396</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>42.19972682437648</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.336688392208148</v>
+        <v>7.673407393938474</v>
       </c>
       <c r="I18" t="n">
-        <v>166.3671416617547</v>
+        <v>8.778541436622984</v>
       </c>
       <c r="J18" t="n">
-        <v>95.70735440799463</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>49.61296482903836</v>
+        <v>10.8714237280983</v>
       </c>
       <c r="L18" t="n">
-        <v>20.47726903586167</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>40.82207324396832</v>
+        <v>2.181769034161818</v>
       </c>
       <c r="N18" t="n">
-        <v>7.366064528155455</v>
+        <v>1.507573807622194</v>
       </c>
       <c r="O18" t="n">
-        <v>51.99610618072899</v>
+        <v>17.49940099697007</v>
       </c>
       <c r="P18" t="n">
-        <v>67.31078119396334</v>
+        <v>17.15948015520271</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.38943882368994</v>
+        <v>29.53049091966522</v>
       </c>
       <c r="R18" t="n">
-        <v>24.2787984420554</v>
+        <v>24.60068080313864</v>
       </c>
       <c r="S18" t="n">
-        <v>12.23401944400899</v>
+        <v>29.75113879128559</v>
       </c>
       <c r="T18" t="n">
-        <v>18.06287156237723</v>
+        <v>12.64834015807019</v>
       </c>
       <c r="U18" t="n">
-        <v>129.5302875211028</v>
+        <v>14.89246808707424</v>
       </c>
       <c r="V18" t="n">
-        <v>12.88012407856108</v>
+        <v>8.881833179259377</v>
       </c>
       <c r="W18" t="n">
-        <v>18.89163109620277</v>
+        <v>9.196789954158705</v>
       </c>
       <c r="X18" t="n">
-        <v>21.50191415757704</v>
+        <v>0.4006939800828757</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.93958153463053</v>
+        <v>13.7609307854884</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.61356042245646</v>
+        <v>54.69249884667611</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.33667791277672</v>
+        <v>9.725806271908201</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.58379542862826</v>
+        <v>13.04459478747702</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.2557042938881</v>
+        <v>3.488856070208442</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.07111172592618</v>
+        <v>4.572460253403179</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.109771866368842</v>
+        <v>20.91099860258629</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.43025025054991</v>
+        <v>7.512842468420204</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.77329355161081</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.31625966513595</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>5.407614422027222</v>
+        <v>1.627986997206393</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26.07263179685588</v>
+        <v>17.56788644934025</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.94211296644403</v>
+        <v>51.64743916509434</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.123064372264203</v>
+        <v>5.958112006607964</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.297634284438266</v>
+        <v>7.86227287375706</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.844756363696133</v>
+        <v>1.726613971753148</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.68698949547575</v>
+        <v>2.065328327852479</v>
       </c>
       <c r="AP18" t="n">
-        <v>5.654911283767246</v>
+        <v>3.593851613900293</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.864831506995659</v>
+        <v>4.571163445801628</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.948390823190325</v>
+        <v>2.322765460376073</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.438169235562536</v>
+        <v>3.918384813521824</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.775226288660451</v>
+        <v>0.766727156363661</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.445796544701793</v>
+        <v>0.02522312593788878</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.6366009748115643</v>
+        <v>0.4715279569378811</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.190922449100187</v>
+        <v>2.324854663368914</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.082934037255236</v>
+        <v>1.911073410834901</v>
       </c>
     </row>
     <row r="19">
@@ -3277,13 +3277,13 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.438616471573557</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.40663333461011</v>
       </c>
       <c r="E19" t="n">
-        <v>4.482439006305813</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3292,133 +3292,133 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.081010984848406</v>
+        <v>34.37082866344121</v>
       </c>
       <c r="I19" t="n">
-        <v>4.575405269257571</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.15237161341118</v>
+        <v>22.11111516839762</v>
       </c>
       <c r="K19" t="n">
-        <v>37.26420366079869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>66.26561343825752</v>
+        <v>62.57412655911881</v>
       </c>
       <c r="M19" t="n">
-        <v>16.83886210343369</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>104.1706484942517</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>44.40317269589511</v>
+        <v>31.22842927421904</v>
       </c>
       <c r="P19" t="n">
-        <v>1.21023645982287</v>
+        <v>62.66487672555407</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.01293208364211</v>
+        <v>5.240883351562109</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>106.053437652456</v>
       </c>
       <c r="S19" t="n">
-        <v>19.08519740186411</v>
+        <v>40.76870862027085</v>
       </c>
       <c r="T19" t="n">
-        <v>29.33289363997824</v>
+        <v>17.98094762673514</v>
       </c>
       <c r="U19" t="n">
-        <v>37.36063909736382</v>
+        <v>32.25998686607334</v>
       </c>
       <c r="V19" t="n">
-        <v>11.55182995318243</v>
+        <v>9.460865177889351</v>
       </c>
       <c r="W19" t="n">
-        <v>13.82882594916124</v>
+        <v>103.9103807300261</v>
       </c>
       <c r="X19" t="n">
-        <v>6.734636234247927</v>
+        <v>27.47432560037399</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.91559525750158</v>
+        <v>48.06345197097906</v>
       </c>
       <c r="Z19" t="n">
-        <v>40.87070042150904</v>
+        <v>15.11995850427868</v>
       </c>
       <c r="AA19" t="n">
-        <v>27.43260574034186</v>
+        <v>7.678551260283582</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.68992281568321</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>48.41947374771363</v>
+        <v>3.726531382932793</v>
       </c>
       <c r="AD19" t="n">
-        <v>45.1752487925141</v>
+        <v>4.522216834512724</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.054976748082647</v>
+        <v>6.855012998494087</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.793562750095162</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.1771978051911129</v>
+        <v>3.688041635117178</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.313073662591248</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.7069399451051535</v>
+        <v>20.5464927895002</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.629778389314837</v>
+        <v>32.41018796677788</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>3.758364534205413</v>
+        <v>40.4663467947319</v>
       </c>
       <c r="AM19" t="n">
-        <v>5.337771236600842</v>
+        <v>14.51827005117638</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.609663768734228</v>
+        <v>0.6269173846855232</v>
       </c>
       <c r="AO19" t="n">
-        <v>10.67771082537661</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.21553423379994</v>
+        <v>6.323293134736269</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.176480297003289</v>
+        <v>2.926014479978088</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.974735728460924</v>
+        <v>8.048431986599446</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.203421701395103</v>
+        <v>11.32514666797646</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.26733022965557</v>
+        <v>2.790050624258712</v>
       </c>
       <c r="AU19" t="n">
-        <v>12.45515858118119</v>
+        <v>1.50200738978054</v>
       </c>
       <c r="AV19" t="n">
-        <v>17.60702047337198</v>
+        <v>0.4884148057025324</v>
       </c>
       <c r="AW19" t="n">
-        <v>57.62437101238936</v>
+        <v>22.57970939409323</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.977381404470394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3429,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>37.12567537889198</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3438,139 +3438,139 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>37.48181756117707</v>
+        <v>30.65428210975649</v>
       </c>
       <c r="G20" t="n">
-        <v>12.77773319491811</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>19.85338490227982</v>
+        <v>30.64568201294896</v>
       </c>
       <c r="I20" t="n">
-        <v>14.53669426584733</v>
+        <v>13.15167164915875</v>
       </c>
       <c r="J20" t="n">
-        <v>113.3357472074223</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>33.53329879796017</v>
+        <v>118.4879666465639</v>
       </c>
       <c r="L20" t="n">
-        <v>74.06889009609391</v>
+        <v>69.56543186118195</v>
       </c>
       <c r="M20" t="n">
-        <v>64.60981894622648</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>54.9908693373995</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>110.0770900033269</v>
+        <v>168.8818500757361</v>
       </c>
       <c r="P20" t="n">
-        <v>142.1750932470327</v>
+        <v>31.30767216095494</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.8602556450692</v>
+        <v>41.00203705215857</v>
       </c>
       <c r="R20" t="n">
-        <v>44.87385798444576</v>
+        <v>49.40878424902923</v>
       </c>
       <c r="S20" t="n">
-        <v>19.88157500308814</v>
+        <v>40.80872101588413</v>
       </c>
       <c r="T20" t="n">
-        <v>13.22231731748002</v>
+        <v>16.73987667707682</v>
       </c>
       <c r="U20" t="n">
-        <v>62.94660140974023</v>
+        <v>61.69591367862178</v>
       </c>
       <c r="V20" t="n">
-        <v>20.76701662761787</v>
+        <v>179.4900153561983</v>
       </c>
       <c r="W20" t="n">
-        <v>113.8011976592956</v>
+        <v>82.47055908468595</v>
       </c>
       <c r="X20" t="n">
-        <v>125.3240269234692</v>
+        <v>34.45726606226447</v>
       </c>
       <c r="Y20" t="n">
-        <v>71.58366160869301</v>
+        <v>59.56442485294113</v>
       </c>
       <c r="Z20" t="n">
-        <v>96.48772110654492</v>
+        <v>61.82514113440566</v>
       </c>
       <c r="AA20" t="n">
-        <v>85.30534801995958</v>
+        <v>77.4051029677361</v>
       </c>
       <c r="AB20" t="n">
-        <v>73.06006462373696</v>
+        <v>73.79919900778778</v>
       </c>
       <c r="AC20" t="n">
-        <v>143.3587821579998</v>
+        <v>221.8711251889291</v>
       </c>
       <c r="AD20" t="n">
-        <v>135.9568222709385</v>
+        <v>115.9173079777286</v>
       </c>
       <c r="AE20" t="n">
-        <v>119.3422546322735</v>
+        <v>84.55573192631923</v>
       </c>
       <c r="AF20" t="n">
-        <v>73.1521555682811</v>
+        <v>134.1938844824176</v>
       </c>
       <c r="AG20" t="n">
-        <v>60.64082010006545</v>
+        <v>107.9196650295854</v>
       </c>
       <c r="AH20" t="n">
-        <v>94.8427224074814</v>
+        <v>170.6471851461291</v>
       </c>
       <c r="AI20" t="n">
-        <v>157.7989342020315</v>
+        <v>35.40863663034268</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18.85183128785324</v>
+        <v>149.0212002737676</v>
       </c>
       <c r="AK20" t="n">
-        <v>85.57081467450556</v>
+        <v>113.2777681942921</v>
       </c>
       <c r="AL20" t="n">
-        <v>29.01061997495115</v>
+        <v>70.17276244780332</v>
       </c>
       <c r="AM20" t="n">
-        <v>26.92688118576995</v>
+        <v>20.4632313105034</v>
       </c>
       <c r="AN20" t="n">
-        <v>30.94916783017175</v>
+        <v>29.01745300542502</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.911984598425644</v>
+        <v>23.96069113579575</v>
       </c>
       <c r="AP20" t="n">
-        <v>17.60230598267841</v>
+        <v>20.24088001938815</v>
       </c>
       <c r="AQ20" t="n">
-        <v>18.47216647718309</v>
+        <v>10.96504412726794</v>
       </c>
       <c r="AR20" t="n">
-        <v>15.16765812031725</v>
+        <v>27.99328007665061</v>
       </c>
       <c r="AS20" t="n">
-        <v>23.79475229152751</v>
+        <v>26.96654130688027</v>
       </c>
       <c r="AT20" t="n">
-        <v>28.64919778795933</v>
+        <v>30.92176145317828</v>
       </c>
       <c r="AU20" t="n">
-        <v>18.29484111576522</v>
+        <v>12.99165453564762</v>
       </c>
       <c r="AV20" t="n">
-        <v>23.60776164249942</v>
+        <v>55.66510865946808</v>
       </c>
       <c r="AW20" t="n">
-        <v>25.10172347352246</v>
+        <v>25.41264561264645</v>
       </c>
       <c r="AX20" t="n">
-        <v>17.27285680344405</v>
+        <v>22.16327450421525</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.396936132844566</v>
+        <v>6.644065424615729</v>
       </c>
       <c r="D21" t="n">
-        <v>2.843391123112879</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4.693449264203153</v>
+        <v>7.201804079874393</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4495172091499227</v>
+        <v>2.716716473202295</v>
       </c>
       <c r="G21" t="n">
-        <v>4.713991716022282</v>
+        <v>3.053234754967473</v>
       </c>
       <c r="H21" t="n">
-        <v>6.486202788353738</v>
+        <v>3.896486401572569</v>
       </c>
       <c r="I21" t="n">
-        <v>3.299763226553164</v>
+        <v>2.235959541777554</v>
       </c>
       <c r="J21" t="n">
-        <v>2.580823329666066</v>
+        <v>1.086842342863427</v>
       </c>
       <c r="K21" t="n">
-        <v>10.52002714390354</v>
+        <v>9.58646649374873</v>
       </c>
       <c r="L21" t="n">
-        <v>3.547994667769409</v>
+        <v>2.95211482428009</v>
       </c>
       <c r="M21" t="n">
-        <v>2.667086216882073</v>
+        <v>8.040729636157776</v>
       </c>
       <c r="N21" t="n">
-        <v>6.436609542891324</v>
+        <v>4.582072001914915</v>
       </c>
       <c r="O21" t="n">
-        <v>5.71840698385559</v>
+        <v>6.106731895099638</v>
       </c>
       <c r="P21" t="n">
-        <v>4.769541292444279</v>
+        <v>5.950397859117097</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.62126603290722</v>
+        <v>0.9846702475819047</v>
       </c>
       <c r="R21" t="n">
-        <v>11.49344364597962</v>
+        <v>2.913055636365508</v>
       </c>
       <c r="S21" t="n">
-        <v>3.874943247894669</v>
+        <v>4.1436224051633</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1029353780759578</v>
+        <v>4.851464957032712</v>
       </c>
       <c r="U21" t="n">
-        <v>1.679731340086001</v>
+        <v>5.052145191979951</v>
       </c>
       <c r="V21" t="n">
-        <v>2.784732348196833</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2.617949651527374</v>
+        <v>3.246228561881648</v>
       </c>
       <c r="X21" t="n">
-        <v>7.831155970609978</v>
+        <v>4.72251631644022</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.608985764472381</v>
+        <v>3.273364815400156</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.233043377217543</v>
+        <v>3.56392923510339</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.640018112608615</v>
+        <v>5.374932600388064</v>
       </c>
       <c r="AB21" t="n">
-        <v>3.629225619405748</v>
+        <v>6.090880644896413</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.747402315899945</v>
+        <v>5.29208304834254</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.61862842981229</v>
+        <v>6.071407476720729</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.339873254890859</v>
+        <v>3.625123939385713</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.557220500410176</v>
+        <v>5.46178225338313</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.965235542745084</v>
+        <v>12.13275265897916</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.525076784614926</v>
+        <v>3.033484215132123</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.992881982251822</v>
+        <v>2.113906005005794</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.658157620097634</v>
+        <v>3.798428809586007</v>
       </c>
       <c r="AK21" t="n">
-        <v>5.511836855225654</v>
+        <v>6.147897109673248</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.590557365109976</v>
+        <v>6.51815915048608</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.369580194741737</v>
+        <v>5.761212475975435</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.591875331585389</v>
+        <v>3.643500238349266</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.008191423578022</v>
+        <v>5.930735076932405</v>
       </c>
       <c r="AP21" t="n">
-        <v>5.980741221243268</v>
+        <v>5.481901597571003</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5.183236780743371</v>
+        <v>3.834917097173373</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.759303312640909</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>6.153409858108275</v>
+        <v>7.046573988967894</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.868623729764223</v>
+        <v>1.887917788725548</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.175017978455152</v>
+        <v>5.463686715521055</v>
       </c>
       <c r="AV21" t="n">
-        <v>2.326051935977076</v>
+        <v>4.202122600898375</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.929163133057295</v>
+        <v>3.135592563737881</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.995628827055745</v>
+        <v>3.722030123140203</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>7.7536209362694</v>
+        <v>29.27444241252494</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>10.10874541917284</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>25.12729323154522</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.868191475920775</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>98.38403388181688</v>
       </c>
       <c r="I22" t="n">
-        <v>10.3459219370782</v>
+        <v>86.50961880497067</v>
       </c>
       <c r="J22" t="n">
-        <v>66.94866159159517</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.73924578019169</v>
+        <v>12.53166729541869</v>
       </c>
       <c r="L22" t="n">
-        <v>108.6800638801336</v>
+        <v>49.45117445426489</v>
       </c>
       <c r="M22" t="n">
-        <v>29.63804814206057</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>132.2200044814663</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.84101137158117</v>
+        <v>72.23312750411937</v>
       </c>
       <c r="P22" t="n">
-        <v>21.12011717426051</v>
+        <v>80.00642061733663</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.29929744519107</v>
+        <v>31.78755799872702</v>
       </c>
       <c r="R22" t="n">
-        <v>107.2799450156251</v>
+        <v>26.6196995338693</v>
       </c>
       <c r="S22" t="n">
-        <v>46.29988239279473</v>
+        <v>37.59822237779628</v>
       </c>
       <c r="T22" t="n">
-        <v>48.25488364060448</v>
+        <v>14.26179883399475</v>
       </c>
       <c r="U22" t="n">
-        <v>37.43575495316461</v>
+        <v>34.91142927790573</v>
       </c>
       <c r="V22" t="n">
-        <v>29.64141376798558</v>
+        <v>38.79110764653216</v>
       </c>
       <c r="W22" t="n">
-        <v>87.78871207548406</v>
+        <v>61.13668970100255</v>
       </c>
       <c r="X22" t="n">
-        <v>40.42698041904858</v>
+        <v>63.71434149248552</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.1424959508268</v>
+        <v>44.13285046352031</v>
       </c>
       <c r="Z22" t="n">
-        <v>33.80781870011297</v>
+        <v>49.96378177142977</v>
       </c>
       <c r="AA22" t="n">
-        <v>51.22638820316754</v>
+        <v>130.7510474506567</v>
       </c>
       <c r="AB22" t="n">
-        <v>83.45783248285456</v>
+        <v>60.591372397663</v>
       </c>
       <c r="AC22" t="n">
-        <v>79.02474788193108</v>
+        <v>99.24842779450428</v>
       </c>
       <c r="AD22" t="n">
-        <v>26.512177721162</v>
+        <v>100.8742144272429</v>
       </c>
       <c r="AE22" t="n">
-        <v>140.2615842691079</v>
+        <v>22.69582359328208</v>
       </c>
       <c r="AF22" t="n">
-        <v>98.45126122848723</v>
+        <v>22.60898528626921</v>
       </c>
       <c r="AG22" t="n">
-        <v>60.82129432269257</v>
+        <v>82.67873305662599</v>
       </c>
       <c r="AH22" t="n">
-        <v>116.3399369312876</v>
+        <v>90.18611895891073</v>
       </c>
       <c r="AI22" t="n">
-        <v>6.987246396291902</v>
+        <v>127.5710480037778</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26.40337467252941</v>
+        <v>63.20411335569996</v>
       </c>
       <c r="AK22" t="n">
-        <v>26.148596734981</v>
+        <v>63.6415693840858</v>
       </c>
       <c r="AL22" t="n">
-        <v>44.47244390567653</v>
+        <v>17.44044269432014</v>
       </c>
       <c r="AM22" t="n">
-        <v>81.9680348746835</v>
+        <v>18.74450605614811</v>
       </c>
       <c r="AN22" t="n">
-        <v>21.95765185404738</v>
+        <v>2.828620167755997</v>
       </c>
       <c r="AO22" t="n">
-        <v>22.57161871428613</v>
+        <v>18.18667889195345</v>
       </c>
       <c r="AP22" t="n">
-        <v>12.7650126656149</v>
+        <v>20.10156647441837</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18.80994319098573</v>
+        <v>21.50268441393744</v>
       </c>
       <c r="AR22" t="n">
-        <v>31.31572016753264</v>
+        <v>28.08161148436038</v>
       </c>
       <c r="AS22" t="n">
-        <v>16.43695929473427</v>
+        <v>9.635484088962915</v>
       </c>
       <c r="AT22" t="n">
-        <v>19.45665333222096</v>
+        <v>13.79105746146788</v>
       </c>
       <c r="AU22" t="n">
-        <v>16.17716141336014</v>
+        <v>12.31958535746187</v>
       </c>
       <c r="AV22" t="n">
-        <v>10.06203870432838</v>
+        <v>17.23725207815872</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.15259926703162</v>
+        <v>10.17586109756599</v>
       </c>
       <c r="AX22" t="n">
-        <v>5.814282771405169</v>
+        <v>23.57820453212621</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>24.78268169731907</v>
+        <v>56.6117232766679</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>37.29281620473547</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>108.3172972029596</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>28.50116551420949</v>
       </c>
       <c r="H23" t="n">
-        <v>16.77401346901071</v>
+        <v>52.05790979995129</v>
       </c>
       <c r="I23" t="n">
-        <v>57.54279205021727</v>
+        <v>22.38583067542863</v>
       </c>
       <c r="J23" t="n">
-        <v>15.64492666801096</v>
+        <v>24.15706939957111</v>
       </c>
       <c r="K23" t="n">
-        <v>45.24736213821553</v>
+        <v>3.912140996737531</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2.186570391483439</v>
       </c>
       <c r="M23" t="n">
-        <v>18.94372973593354</v>
+        <v>123.8224922907462</v>
       </c>
       <c r="N23" t="n">
-        <v>27.21888558187156</v>
+        <v>116.7104942956608</v>
       </c>
       <c r="O23" t="n">
-        <v>227.4270731263467</v>
+        <v>31.74962175753224</v>
       </c>
       <c r="P23" t="n">
-        <v>127.2252856560071</v>
+        <v>10.16764554203385</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.820184246075586</v>
+        <v>94.49124125981524</v>
       </c>
       <c r="R23" t="n">
-        <v>50.31784658446666</v>
+        <v>47.2775197722955</v>
       </c>
       <c r="S23" t="n">
-        <v>44.47748077320707</v>
+        <v>60.63080541269912</v>
       </c>
       <c r="T23" t="n">
-        <v>22.43524795712475</v>
+        <v>12.36546789927582</v>
       </c>
       <c r="U23" t="n">
-        <v>46.93926147180585</v>
+        <v>66.20712761422406</v>
       </c>
       <c r="V23" t="n">
-        <v>61.19699430870358</v>
+        <v>40.54703241663307</v>
       </c>
       <c r="W23" t="n">
-        <v>89.94026195099896</v>
+        <v>96.2769443687562</v>
       </c>
       <c r="X23" t="n">
-        <v>63.27627870209818</v>
+        <v>13.56403406044924</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.85857909845942</v>
+        <v>16.22093202726917</v>
       </c>
       <c r="Z23" t="n">
-        <v>57.86072335264637</v>
+        <v>19.45266079556479</v>
       </c>
       <c r="AA23" t="n">
-        <v>53.17044656122467</v>
+        <v>48.54080199574693</v>
       </c>
       <c r="AB23" t="n">
-        <v>33.66805961675255</v>
+        <v>36.80833319501811</v>
       </c>
       <c r="AC23" t="n">
-        <v>15.18648288643805</v>
+        <v>5.676961212388612</v>
       </c>
       <c r="AD23" t="n">
-        <v>30.81398509782048</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>65.37376942896697</v>
+        <v>19.93167003094467</v>
       </c>
       <c r="AF23" t="n">
-        <v>45.41624017915073</v>
+        <v>1.830904566704465</v>
       </c>
       <c r="AG23" t="n">
-        <v>22.77045605040816</v>
+        <v>43.17714488526862</v>
       </c>
       <c r="AH23" t="n">
-        <v>22.38080592321637</v>
+        <v>66.72448448275475</v>
       </c>
       <c r="AI23" t="n">
-        <v>51.24694522922384</v>
+        <v>11.68815026612896</v>
       </c>
       <c r="AJ23" t="n">
-        <v>35.06916400866716</v>
+        <v>49.8108976548439</v>
       </c>
       <c r="AK23" t="n">
-        <v>42.22307298026373</v>
+        <v>38.37217791042961</v>
       </c>
       <c r="AL23" t="n">
-        <v>47.29174671160717</v>
+        <v>15.87269605388406</v>
       </c>
       <c r="AM23" t="n">
-        <v>33.61202541188391</v>
+        <v>35.40841191649747</v>
       </c>
       <c r="AN23" t="n">
-        <v>24.77141450451217</v>
+        <v>14.43940625792611</v>
       </c>
       <c r="AO23" t="n">
-        <v>12.82509471960003</v>
+        <v>28.44630084149498</v>
       </c>
       <c r="AP23" t="n">
-        <v>31.98564015991336</v>
+        <v>22.6194207719314</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26.55035047041879</v>
+        <v>20.39908323520859</v>
       </c>
       <c r="AR23" t="n">
-        <v>22.74664047539927</v>
+        <v>31.73670044223665</v>
       </c>
       <c r="AS23" t="n">
-        <v>27.48783548100469</v>
+        <v>15.04337463991366</v>
       </c>
       <c r="AT23" t="n">
-        <v>18.98893530743834</v>
+        <v>33.37396751015538</v>
       </c>
       <c r="AU23" t="n">
-        <v>31.15211348681609</v>
+        <v>24.48459707555865</v>
       </c>
       <c r="AV23" t="n">
-        <v>14.29191514320912</v>
+        <v>34.83749853260701</v>
       </c>
       <c r="AW23" t="n">
-        <v>18.36636868162771</v>
+        <v>25.23355460467656</v>
       </c>
       <c r="AX23" t="n">
-        <v>9.602147447599432</v>
+        <v>19.62118851030018</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>21.69930487953403</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>29.36423730573768</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>7.828866597689503</v>
       </c>
       <c r="F24" t="n">
-        <v>5.571650729116279</v>
+        <v>4.718617439765746</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>9.585453900722825</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5.126016442116155</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.877886698639413</v>
+        <v>5.666674527616055</v>
       </c>
       <c r="K24" t="n">
-        <v>15.42634014592755</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>10.13896758595965</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>153.5987739870268</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>10.70928707026973</v>
+        <v>3.626410963593167</v>
       </c>
       <c r="O24" t="n">
-        <v>16.81743346997737</v>
+        <v>30.11406721004182</v>
       </c>
       <c r="P24" t="n">
-        <v>75.04352557185199</v>
+        <v>11.84345924171358</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.79144723120131</v>
+        <v>37.29099691820659</v>
       </c>
       <c r="R24" t="n">
-        <v>46.50475304325273</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.02318571590835</v>
+        <v>15.47281505556366</v>
       </c>
       <c r="T24" t="n">
-        <v>14.32480449889053</v>
+        <v>11.74377465505909</v>
       </c>
       <c r="U24" t="n">
-        <v>34.58779109762593</v>
+        <v>25.06583331648958</v>
       </c>
       <c r="V24" t="n">
-        <v>116.2410596446913</v>
+        <v>36.31738129955831</v>
       </c>
       <c r="W24" t="n">
-        <v>4.172031639613524</v>
+        <v>6.392427393252801</v>
       </c>
       <c r="X24" t="n">
-        <v>10.97685433940176</v>
+        <v>29.11883956511381</v>
       </c>
       <c r="Y24" t="n">
-        <v>32.41414236154879</v>
+        <v>5.590493937259377</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.55031111705859</v>
+        <v>6.364647210235274</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.461292591136647</v>
+        <v>10.94549837542621</v>
       </c>
       <c r="AB24" t="n">
-        <v>23.75692359292009</v>
+        <v>10.2339800421838</v>
       </c>
       <c r="AC24" t="n">
-        <v>23.79020380190572</v>
+        <v>10.64865305333199</v>
       </c>
       <c r="AD24" t="n">
-        <v>3.275195082308811</v>
+        <v>33.3111521451915</v>
       </c>
       <c r="AE24" t="n">
-        <v>27.32676701965316</v>
+        <v>7.99790522568499</v>
       </c>
       <c r="AF24" t="n">
-        <v>18.55348099162759</v>
+        <v>16.02614024449147</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.05787107677515</v>
+        <v>10.80312429720249</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.600393014333632</v>
+        <v>36.55301422585773</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.6993102519315</v>
+        <v>1.798201426253345</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5.270339461718597</v>
+        <v>21.66401421735446</v>
       </c>
       <c r="AK24" t="n">
-        <v>18.7031113974456</v>
+        <v>7.856559994117013</v>
       </c>
       <c r="AL24" t="n">
-        <v>5.787446076719259</v>
+        <v>6.548604599876373</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.86850930496851</v>
+        <v>1.604847051592531</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.453542102785766</v>
+        <v>2.855250721640692</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>0.9996412406544268</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.493600171417528</v>
+        <v>1.796518575945522</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.3753666096220187</v>
+        <v>1.335678016427996</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.573658923864126</v>
+        <v>2.790259585251449</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.319864576457736</v>
+        <v>6.113394995410951</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.070473266650246</v>
+        <v>1.323880466510596</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.196013435138834</v>
+        <v>5.484470473025709</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>6.91784073107331</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.182173591939637</v>
+        <v>2.905976666890705</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.31522495720199</v>
+        <v>3.683995705882467</v>
       </c>
     </row>
     <row r="25">
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>23.04533299370453</v>
+        <v>0.06147444044551165</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -4201,136 +4201,136 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.935509780677964</v>
       </c>
       <c r="H25" t="n">
-        <v>132.1313803333288</v>
+        <v>10.68658871661924</v>
       </c>
       <c r="I25" t="n">
-        <v>124.8117705522513</v>
+        <v>18.08717083947139</v>
       </c>
       <c r="J25" t="n">
-        <v>57.40028074330926</v>
+        <v>36.81770310619778</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3994778975603621</v>
+        <v>8.365426418617687</v>
       </c>
       <c r="L25" t="n">
-        <v>14.63864729909874</v>
+        <v>40.20814186463048</v>
       </c>
       <c r="M25" t="n">
-        <v>24.59231548772824</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>85.95400229609227</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>69.91971360830841</v>
+        <v>81.65346970561208</v>
       </c>
       <c r="P25" t="n">
-        <v>15.86670439030933</v>
+        <v>12.88770738650749</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.4199265293258</v>
+        <v>33.51313387644908</v>
       </c>
       <c r="R25" t="n">
-        <v>9.53679834028739</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>28.20911157708907</v>
+        <v>14.00380758612357</v>
       </c>
       <c r="T25" t="n">
-        <v>5.50499601817254</v>
+        <v>20.38851220446371</v>
       </c>
       <c r="U25" t="n">
-        <v>38.67789074772889</v>
+        <v>12.85747916880858</v>
       </c>
       <c r="V25" t="n">
-        <v>42.77379742587552</v>
+        <v>29.40636261251725</v>
       </c>
       <c r="W25" t="n">
-        <v>37.1385556014971</v>
+        <v>81.28750298368537</v>
       </c>
       <c r="X25" t="n">
-        <v>44.35113883230079</v>
+        <v>78.11784276020009</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.13682520474204</v>
+        <v>30.26307711276468</v>
       </c>
       <c r="Z25" t="n">
-        <v>47.95165802002823</v>
+        <v>59.17579013370477</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.011963638969616</v>
+        <v>42.53152017829309</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.25558341187467</v>
+        <v>1.350381270881644</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.52513608842794</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>35.01605555524947</v>
+        <v>28.6427977187928</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.651124983848851</v>
+        <v>21.22584150670076</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.058912809357548</v>
+        <v>0.8646626570829792</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.09402982715986</v>
+        <v>11.09854687178322</v>
       </c>
       <c r="AH25" t="n">
-        <v>19.31866511975392</v>
+        <v>37.46555303269782</v>
       </c>
       <c r="AI25" t="n">
-        <v>7.475344024548379</v>
+        <v>22.06022494871797</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.577180896251084</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>13.29612267915519</v>
+        <v>5.469293512759184</v>
       </c>
       <c r="AL25" t="n">
-        <v>16.26171725921127</v>
+        <v>7.103733520567472</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.832291850901395</v>
+        <v>6.302526120726331</v>
       </c>
       <c r="AN25" t="n">
-        <v>10.10938029903548</v>
+        <v>1.103145196954673</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.413483854741524</v>
+        <v>0.8825587908261758</v>
       </c>
       <c r="AP25" t="n">
-        <v>4.330572744362806</v>
+        <v>9.099977456861721</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10.34142394194896</v>
+        <v>16.9776823529295</v>
       </c>
       <c r="AR25" t="n">
-        <v>10.29421519442004</v>
+        <v>21.13964557266796</v>
       </c>
       <c r="AS25" t="n">
-        <v>7.953536314254244</v>
+        <v>19.65389168214287</v>
       </c>
       <c r="AT25" t="n">
-        <v>71.91271253220933</v>
+        <v>29.28115878592399</v>
       </c>
       <c r="AU25" t="n">
-        <v>13.18023282324973</v>
+        <v>4.61582767072207</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>4.790072201177985</v>
       </c>
       <c r="AW25" t="n">
-        <v>9.36159590549325</v>
+        <v>6.272762658720424</v>
       </c>
       <c r="AX25" t="n">
-        <v>15.1152727854747</v>
+        <v>9.957954626508766</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>13.61858197785801</v>
+        <v>20.02588356460344</v>
       </c>
       <c r="D26" t="n">
-        <v>24.3262844177759</v>
+        <v>193.1551762337239</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>80.87605214291186</v>
       </c>
       <c r="F26" t="n">
-        <v>18.02331675193226</v>
+        <v>6.326027381411505</v>
       </c>
       <c r="G26" t="n">
-        <v>25.09728385510964</v>
+        <v>37.59374522947486</v>
       </c>
       <c r="H26" t="n">
-        <v>32.91689094387102</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.71527605013202</v>
+        <v>12.59760520638833</v>
       </c>
       <c r="J26" t="n">
-        <v>337.6800881076729</v>
+        <v>91.14655071892267</v>
       </c>
       <c r="K26" t="n">
-        <v>54.90863167131323</v>
+        <v>50.78181689323333</v>
       </c>
       <c r="L26" t="n">
-        <v>4.595174579169483</v>
+        <v>5.62612913705544</v>
       </c>
       <c r="M26" t="n">
-        <v>121.1974776142874</v>
+        <v>95.22565267495703</v>
       </c>
       <c r="N26" t="n">
-        <v>32.82322555726266</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>22.16078445107545</v>
+        <v>58.95744200649262</v>
       </c>
       <c r="P26" t="n">
-        <v>33.32158846329798</v>
+        <v>35.80396466691457</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.49574200572807</v>
+        <v>47.1112407171183</v>
       </c>
       <c r="R26" t="n">
-        <v>67.91609930652305</v>
+        <v>64.83493199005235</v>
       </c>
       <c r="S26" t="n">
-        <v>34.99071155488847</v>
+        <v>98.21831943441997</v>
       </c>
       <c r="T26" t="n">
-        <v>40.02196326138892</v>
+        <v>126.6750213013527</v>
       </c>
       <c r="U26" t="n">
-        <v>77.30924678331434</v>
+        <v>28.23703220947002</v>
       </c>
       <c r="V26" t="n">
-        <v>35.66044835509528</v>
+        <v>53.4397284146868</v>
       </c>
       <c r="W26" t="n">
-        <v>67.0444119223412</v>
+        <v>53.33775968065964</v>
       </c>
       <c r="X26" t="n">
-        <v>76.10640672582562</v>
+        <v>50.46625876329124</v>
       </c>
       <c r="Y26" t="n">
-        <v>40.19997517956929</v>
+        <v>77.09152668655076</v>
       </c>
       <c r="Z26" t="n">
-        <v>52.23310646396355</v>
+        <v>69.73532922206391</v>
       </c>
       <c r="AA26" t="n">
-        <v>77.88717935878081</v>
+        <v>44.60680793127928</v>
       </c>
       <c r="AB26" t="n">
-        <v>76.11515965563572</v>
+        <v>92.55951901517359</v>
       </c>
       <c r="AC26" t="n">
-        <v>128.7128037123734</v>
+        <v>88.79684970106482</v>
       </c>
       <c r="AD26" t="n">
-        <v>150.8988931115299</v>
+        <v>54.60963352066313</v>
       </c>
       <c r="AE26" t="n">
-        <v>136.1432946945578</v>
+        <v>61.74530591192438</v>
       </c>
       <c r="AF26" t="n">
-        <v>60.79805486070942</v>
+        <v>83.29697664502382</v>
       </c>
       <c r="AG26" t="n">
-        <v>80.7726498816115</v>
+        <v>168.0276086081058</v>
       </c>
       <c r="AH26" t="n">
-        <v>97.10978224350966</v>
+        <v>47.12507388702213</v>
       </c>
       <c r="AI26" t="n">
-        <v>176.8963183885548</v>
+        <v>86.90338003665624</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60.28777785472382</v>
+        <v>97.11617722267435</v>
       </c>
       <c r="AK26" t="n">
-        <v>143.7200815862338</v>
+        <v>105.5758047276599</v>
       </c>
       <c r="AL26" t="n">
-        <v>31.4318884153572</v>
+        <v>125.6661321818003</v>
       </c>
       <c r="AM26" t="n">
-        <v>24.00728167148237</v>
+        <v>19.0621191749753</v>
       </c>
       <c r="AN26" t="n">
-        <v>41.35245202866383</v>
+        <v>31.49570964395164</v>
       </c>
       <c r="AO26" t="n">
-        <v>27.10525805182468</v>
+        <v>51.08453077668476</v>
       </c>
       <c r="AP26" t="n">
-        <v>19.68009484779446</v>
+        <v>10.85783073147851</v>
       </c>
       <c r="AQ26" t="n">
-        <v>40.38605887330302</v>
+        <v>3.355147693830377</v>
       </c>
       <c r="AR26" t="n">
-        <v>21.16200849690831</v>
+        <v>16.3730649872154</v>
       </c>
       <c r="AS26" t="n">
-        <v>23.23240367259255</v>
+        <v>13.00344812424726</v>
       </c>
       <c r="AT26" t="n">
-        <v>29.67833785496592</v>
+        <v>11.56057094352382</v>
       </c>
       <c r="AU26" t="n">
-        <v>25.37409050804604</v>
+        <v>55.67123358027365</v>
       </c>
       <c r="AV26" t="n">
-        <v>22.25629972601844</v>
+        <v>51.42354063990506</v>
       </c>
       <c r="AW26" t="n">
-        <v>23.34751544627862</v>
+        <v>55.95785886336603</v>
       </c>
       <c r="AX26" t="n">
-        <v>24.33806102847037</v>
+        <v>27.93262331351393</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3946848116919448</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>11.46154452192567</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>7.597872384037727</v>
       </c>
       <c r="F27" t="n">
-        <v>3.293019236950625</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7023102350509</v>
+        <v>1.936322338381888</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1590961467529832</v>
+        <v>1.397026839040268</v>
       </c>
       <c r="I27" t="n">
-        <v>2.227949745534027</v>
+        <v>2.889902693535459</v>
       </c>
       <c r="J27" t="n">
-        <v>2.466038442413472</v>
+        <v>6.387967825619797</v>
       </c>
       <c r="K27" t="n">
-        <v>1.332976010023056</v>
+        <v>3.566929769496155</v>
       </c>
       <c r="L27" t="n">
-        <v>0.574752212707978</v>
+        <v>1.103672126192073</v>
       </c>
       <c r="M27" t="n">
-        <v>3.017630515443815</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.202567606306801</v>
+        <v>2.411569391835159</v>
       </c>
       <c r="O27" t="n">
-        <v>9.808929429606239</v>
+        <v>9.407436518154528</v>
       </c>
       <c r="P27" t="n">
-        <v>1.815717480139694</v>
+        <v>4.158022927045717</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.710404524170034</v>
+        <v>2.264121353215035</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.478343962374337</v>
       </c>
       <c r="S27" t="n">
-        <v>2.691530073474508</v>
+        <v>2.638624493555333</v>
       </c>
       <c r="T27" t="n">
-        <v>2.275377896959708</v>
+        <v>5.039069278635061</v>
       </c>
       <c r="U27" t="n">
-        <v>3.882739564057006</v>
+        <v>5.699329942364625</v>
       </c>
       <c r="V27" t="n">
-        <v>4.030683003689563</v>
+        <v>21.68634371208174</v>
       </c>
       <c r="W27" t="n">
-        <v>1.719007539290767</v>
+        <v>4.417127616911667</v>
       </c>
       <c r="X27" t="n">
-        <v>11.07688776448266</v>
+        <v>0.6987530172442291</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.179865032094137</v>
+        <v>2.040775313577136</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.517782975791419</v>
+        <v>5.700981479288556</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.689980082446228</v>
+        <v>4.985637127993169</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.656696559285319</v>
+        <v>7.346046678496839</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.11951447589066</v>
+        <v>8.790035606703769</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.899037907152056</v>
+        <v>6.774908601233727</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.947169697841437</v>
+        <v>7.650909103308989</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.758570056770636</v>
+        <v>6.468329985219347</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.063051595942967</v>
+        <v>6.186492097712581</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.956433464922998</v>
+        <v>4.100264923263314</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.3882126682853</v>
+        <v>4.791092340148945</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2.92496085916718</v>
+        <v>2.60924061149576</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.801108207340415</v>
+        <v>5.352714407104308</v>
       </c>
       <c r="AL27" t="n">
-        <v>7.68896405650776</v>
+        <v>2.873361923851267</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.6253514928891467</v>
+        <v>3.711325586500531</v>
       </c>
       <c r="AN27" t="n">
-        <v>7.93044209725285</v>
+        <v>3.76642698991092</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.350445420345088</v>
+        <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.197615457853908</v>
+        <v>2.406220355738058</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.995539540180413</v>
+        <v>5.744743341220626</v>
       </c>
       <c r="AR27" t="n">
-        <v>4.401787814862392</v>
+        <v>3.590054535077915</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.534683002800104</v>
+        <v>4.235880567948684</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.19015143808395</v>
+        <v>1.562151815568995</v>
       </c>
       <c r="AU27" t="n">
-        <v>5.597668627926671</v>
+        <v>3.404831621578039</v>
       </c>
       <c r="AV27" t="n">
-        <v>0</v>
+        <v>4.654874547277941</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.579540104679474</v>
+        <v>4.994447007642946</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.345849454185791</v>
+        <v>1.12522113919218</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>16.8901110769344</v>
+        <v>48.48545041899312</v>
       </c>
       <c r="D28" t="n">
-        <v>9.966558257048199</v>
+        <v>19.80663863937396</v>
       </c>
       <c r="E28" t="n">
-        <v>7.930582234476726</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.63566899407566</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>11.39371374468832</v>
+        <v>84.91105995725128</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31393468147601</v>
+        <v>179.4907008882816</v>
       </c>
       <c r="J28" t="n">
-        <v>171.7035780252359</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>21.14509511415535</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>85.16830698994589</v>
       </c>
       <c r="M28" t="n">
-        <v>17.81410135353822</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>100.5001450944764</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>205.8810365699198</v>
+        <v>119.9755845217374</v>
       </c>
       <c r="P28" t="n">
-        <v>64.73846577306958</v>
+        <v>70.84159382753711</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.39560937739688</v>
+        <v>73.69498972975461</v>
       </c>
       <c r="R28" t="n">
-        <v>19.45982646624097</v>
+        <v>35.37000850265338</v>
       </c>
       <c r="S28" t="n">
-        <v>63.13110040176809</v>
+        <v>68.86155024880622</v>
       </c>
       <c r="T28" t="n">
-        <v>134.040992037054</v>
+        <v>38.75709019543593</v>
       </c>
       <c r="U28" t="n">
-        <v>52.34068014715626</v>
+        <v>49.70153505472869</v>
       </c>
       <c r="V28" t="n">
-        <v>57.49207376342215</v>
+        <v>70.39878695657815</v>
       </c>
       <c r="W28" t="n">
-        <v>37.35077577658166</v>
+        <v>38.756416192251</v>
       </c>
       <c r="X28" t="n">
-        <v>49.84421739092272</v>
+        <v>45.47355869851842</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.94432862528735</v>
+        <v>25.52373867162586</v>
       </c>
       <c r="Z28" t="n">
-        <v>34.54623118837465</v>
+        <v>126.1281162065542</v>
       </c>
       <c r="AA28" t="n">
-        <v>98.67004898984766</v>
+        <v>116.9951253264524</v>
       </c>
       <c r="AB28" t="n">
-        <v>49.9113510120483</v>
+        <v>88.24685050859361</v>
       </c>
       <c r="AC28" t="n">
-        <v>69.40006651408447</v>
+        <v>23.80794318656883</v>
       </c>
       <c r="AD28" t="n">
-        <v>70.21763802818208</v>
+        <v>50.12496980618935</v>
       </c>
       <c r="AE28" t="n">
-        <v>65.89820494499774</v>
+        <v>0.9281951562639463</v>
       </c>
       <c r="AF28" t="n">
-        <v>69.8765588361139</v>
+        <v>20.98988935082924</v>
       </c>
       <c r="AG28" t="n">
-        <v>46.51371302976625</v>
+        <v>65.56406924528534</v>
       </c>
       <c r="AH28" t="n">
-        <v>51.27634741491433</v>
+        <v>109.427999774754</v>
       </c>
       <c r="AI28" t="n">
-        <v>14.58907315658404</v>
+        <v>19.57728856912613</v>
       </c>
       <c r="AJ28" t="n">
-        <v>56.02691674453084</v>
+        <v>35.49354117159231</v>
       </c>
       <c r="AK28" t="n">
-        <v>75.53481739188138</v>
+        <v>54.6898790801732</v>
       </c>
       <c r="AL28" t="n">
-        <v>27.70113510872521</v>
+        <v>116.4389868475324</v>
       </c>
       <c r="AM28" t="n">
-        <v>60.85196882072936</v>
+        <v>23.3472768095261</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.96447263205738</v>
+        <v>33.07292782355997</v>
       </c>
       <c r="AO28" t="n">
-        <v>8.039839134545508</v>
+        <v>12.01728946174764</v>
       </c>
       <c r="AP28" t="n">
-        <v>57.13184217254862</v>
+        <v>11.33689184876378</v>
       </c>
       <c r="AQ28" t="n">
-        <v>27.36866127763668</v>
+        <v>11.10207563237248</v>
       </c>
       <c r="AR28" t="n">
-        <v>17.00339758075926</v>
+        <v>20.60500484385336</v>
       </c>
       <c r="AS28" t="n">
-        <v>11.03017890568781</v>
+        <v>12.24682698043862</v>
       </c>
       <c r="AT28" t="n">
-        <v>10.51042567425202</v>
+        <v>5.656843748733044</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.823357466936784</v>
+        <v>12.27173218208619</v>
       </c>
       <c r="AV28" t="n">
-        <v>12.91481131002891</v>
+        <v>8.904448318026279</v>
       </c>
       <c r="AW28" t="n">
-        <v>14.56414292373239</v>
+        <v>13.19162263669502</v>
       </c>
       <c r="AX28" t="n">
-        <v>15.6662352668837</v>
+        <v>49.7129259342024</v>
       </c>
     </row>
     <row r="29">
@@ -4797,10 +4797,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>30.11879873401192</v>
+        <v>56.18369672830617</v>
       </c>
       <c r="D29" t="n">
-        <v>14.22104549348999</v>
+        <v>16.91536173687949</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4812,133 +4812,133 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>22.36524649018382</v>
+        <v>31.13288756411676</v>
       </c>
       <c r="I29" t="n">
-        <v>17.19434565050322</v>
+        <v>13.7380965395227</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>11.48748790811302</v>
+        <v>5.24292664896717</v>
       </c>
       <c r="L29" t="n">
-        <v>43.89223781354558</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>34.64040801533838</v>
+        <v>6.658913550337295</v>
       </c>
       <c r="N29" t="n">
-        <v>48.38772334635048</v>
+        <v>27.27361985738083</v>
       </c>
       <c r="O29" t="n">
-        <v>30.49040406145375</v>
+        <v>2.571854864043033</v>
       </c>
       <c r="P29" t="n">
-        <v>36.6898012479818</v>
+        <v>50.82231578336207</v>
       </c>
       <c r="Q29" t="n">
-        <v>282.9587827397211</v>
+        <v>32.49697434060207</v>
       </c>
       <c r="R29" t="n">
-        <v>64.06490799247206</v>
+        <v>13.89239377626164</v>
       </c>
       <c r="S29" t="n">
-        <v>17.46275800483342</v>
+        <v>56.06960589658379</v>
       </c>
       <c r="T29" t="n">
-        <v>11.11986353000021</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>34.79433177024494</v>
+        <v>12.07949207080215</v>
       </c>
       <c r="V29" t="n">
-        <v>77.46219849742509</v>
+        <v>137.809512923606</v>
       </c>
       <c r="W29" t="n">
-        <v>31.14710017577316</v>
+        <v>58.63093710862772</v>
       </c>
       <c r="X29" t="n">
-        <v>17.10875434535103</v>
+        <v>47.87770957149344</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.31230915906057</v>
+        <v>98.92340121309232</v>
       </c>
       <c r="Z29" t="n">
-        <v>28.63397161265387</v>
+        <v>197.1536402212071</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.07758416158762</v>
+        <v>25.25660044817978</v>
       </c>
       <c r="AB29" t="n">
-        <v>46.47165576673407</v>
+        <v>20.1981425488725</v>
       </c>
       <c r="AC29" t="n">
-        <v>62.85078678375783</v>
+        <v>21.6961791650704</v>
       </c>
       <c r="AD29" t="n">
-        <v>45.89971723145077</v>
+        <v>10.04399187388952</v>
       </c>
       <c r="AE29" t="n">
-        <v>61.83106099139702</v>
+        <v>29.95012443890123</v>
       </c>
       <c r="AF29" t="n">
-        <v>126.3213539178134</v>
+        <v>17.04034376892923</v>
       </c>
       <c r="AG29" t="n">
-        <v>20.2908569523921</v>
+        <v>28.27625529607063</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.06691877202951</v>
+        <v>176.739742289523</v>
       </c>
       <c r="AI29" t="n">
-        <v>32.5786481958464</v>
+        <v>71.18006731764244</v>
       </c>
       <c r="AJ29" t="n">
-        <v>6.007306072230669</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>18.44837621542085</v>
+        <v>29.17072379299524</v>
       </c>
       <c r="AL29" t="n">
-        <v>16.11786033360733</v>
+        <v>72.74068883933838</v>
       </c>
       <c r="AM29" t="n">
-        <v>49.04917724917754</v>
+        <v>18.97415962469</v>
       </c>
       <c r="AN29" t="n">
-        <v>14.96265551485325</v>
+        <v>0.7824307446456187</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.6442581824827833</v>
+        <v>30.21096695845379</v>
       </c>
       <c r="AP29" t="n">
-        <v>26.61443318003575</v>
+        <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>30.6214623305888</v>
+        <v>24.90927985984209</v>
       </c>
       <c r="AR29" t="n">
-        <v>4.73341978841752</v>
+        <v>16.494629497313</v>
       </c>
       <c r="AS29" t="n">
-        <v>30.89501128440472</v>
+        <v>34.55729450616011</v>
       </c>
       <c r="AT29" t="n">
-        <v>22.17068287741898</v>
+        <v>42.50579896075636</v>
       </c>
       <c r="AU29" t="n">
-        <v>23.19942957813574</v>
+        <v>23.88923354202528</v>
       </c>
       <c r="AV29" t="n">
-        <v>21.42744112958036</v>
+        <v>21.11991303304796</v>
       </c>
       <c r="AW29" t="n">
-        <v>23.69826485966006</v>
+        <v>24.77839230283136</v>
       </c>
       <c r="AX29" t="n">
-        <v>32.34348985068438</v>
+        <v>17.83336851644773</v>
       </c>
     </row>
     <row r="30">
@@ -4952,145 +4952,145 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>24.26290263222503</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>15.48717223286852</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>14.87724789236138</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.508024973946039</v>
       </c>
       <c r="I30" t="n">
-        <v>24.8815244934541</v>
+        <v>11.41832629365707</v>
       </c>
       <c r="J30" t="n">
-        <v>42.88302259137119</v>
+        <v>14.2000913112467</v>
       </c>
       <c r="K30" t="n">
-        <v>28.85780298167187</v>
+        <v>62.13777665796292</v>
       </c>
       <c r="L30" t="n">
-        <v>124.9343338074285</v>
+        <v>93.27157269409149</v>
       </c>
       <c r="M30" t="n">
-        <v>165.2126528598517</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>19.58636726373116</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>20.63961084975633</v>
+        <v>21.43326063634924</v>
       </c>
       <c r="P30" t="n">
-        <v>12.07345032680488</v>
+        <v>29.45130209974641</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.55671870600908</v>
+        <v>21.86972212651789</v>
       </c>
       <c r="R30" t="n">
-        <v>8.86677238728312</v>
+        <v>60.80266527625029</v>
       </c>
       <c r="S30" t="n">
-        <v>19.36037422657276</v>
+        <v>49.68494107465578</v>
       </c>
       <c r="T30" t="n">
-        <v>10.22585767959287</v>
+        <v>20.23677678910331</v>
       </c>
       <c r="U30" t="n">
-        <v>18.20747170365416</v>
+        <v>17.38380985954283</v>
       </c>
       <c r="V30" t="n">
-        <v>11.55878078050001</v>
+        <v>9.670184640754808</v>
       </c>
       <c r="W30" t="n">
-        <v>10.17357902630012</v>
+        <v>14.10080167378065</v>
       </c>
       <c r="X30" t="n">
-        <v>6.873518617136762</v>
+        <v>5.592275895929609</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.38160868732921</v>
+        <v>3.727640446457321</v>
       </c>
       <c r="Z30" t="n">
-        <v>60.63048106651422</v>
+        <v>26.39764327853056</v>
       </c>
       <c r="AA30" t="n">
-        <v>24.3307016665421</v>
+        <v>9.715591390361004</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.293402080189686</v>
+        <v>11.4186214795891</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.2844723944137</v>
+        <v>23.33612248408756</v>
       </c>
       <c r="AD30" t="n">
-        <v>18.34052088101023</v>
+        <v>6.116684613285516</v>
       </c>
       <c r="AE30" t="n">
-        <v>13.19448500332257</v>
+        <v>3.210959891998608</v>
       </c>
       <c r="AF30" t="n">
-        <v>5.957853312623318</v>
+        <v>14.5557681627681</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.77453121959611</v>
+        <v>16.4011569192007</v>
       </c>
       <c r="AH30" t="n">
-        <v>8.16175741089833</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>20.07573723273291</v>
+        <v>18.12984465791466</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.576497993705878</v>
+        <v>12.81790993536469</v>
       </c>
       <c r="AK30" t="n">
-        <v>5.464133511914444</v>
+        <v>24.99817809560725</v>
       </c>
       <c r="AL30" t="n">
-        <v>5.911701629845633</v>
+        <v>3.873041420179238</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.695665562717638</v>
+        <v>4.042756743297597</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.068114033762508</v>
+        <v>6.857261581862097</v>
       </c>
       <c r="AO30" t="n">
-        <v>2.184415041633311</v>
+        <v>4.557013926918796</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.404399701847485</v>
+        <v>1.933837348486761</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.469595128673299</v>
+        <v>6.426301435127741</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.635274948117728</v>
+        <v>4.370704403518456</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.42891489175156</v>
+        <v>4.397446580983747</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.856995411069403</v>
+        <v>1.727894886421989</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.917561045741431</v>
+        <v>0.9885136391718294</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.855671033362148</v>
+        <v>1.809888115775748</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.605957771297859</v>
+        <v>5.073532183409529</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.7785721211726833</v>
+        <v>4.566961855190655</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>23.66123521794968</v>
       </c>
       <c r="D31" t="n">
-        <v>25.52863000586766</v>
+        <v>76.34240343561169</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.327601252329673</v>
       </c>
       <c r="F31" t="n">
-        <v>14.5053275031674</v>
+        <v>39.92526280340041</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.205867670221246</v>
       </c>
       <c r="H31" t="n">
-        <v>34.91400287136404</v>
+        <v>8.33739240141011</v>
       </c>
       <c r="I31" t="n">
-        <v>6.871085000652165</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.84467495281145</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>14.21336845469807</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.34198969483166</v>
+        <v>123.0573499396995</v>
       </c>
       <c r="M31" t="n">
-        <v>64.47416397983771</v>
+        <v>17.01732117474427</v>
       </c>
       <c r="N31" t="n">
-        <v>67.39856836273719</v>
+        <v>14.06036859644979</v>
       </c>
       <c r="O31" t="n">
-        <v>81.47414948009016</v>
+        <v>24.84734069976595</v>
       </c>
       <c r="P31" t="n">
-        <v>19.81499226271364</v>
+        <v>43.54336065859289</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58836442707226</v>
+        <v>37.79823851273704</v>
       </c>
       <c r="R31" t="n">
-        <v>13.50260640366269</v>
+        <v>61.77731637082512</v>
       </c>
       <c r="S31" t="n">
-        <v>31.48596965735385</v>
+        <v>9.847712294597819</v>
       </c>
       <c r="T31" t="n">
-        <v>38.71174452827749</v>
+        <v>23.5903863910569</v>
       </c>
       <c r="U31" t="n">
-        <v>49.86338076097537</v>
+        <v>13.11706456190634</v>
       </c>
       <c r="V31" t="n">
-        <v>25.6023195324277</v>
+        <v>17.91645297460606</v>
       </c>
       <c r="W31" t="n">
-        <v>41.07783833624102</v>
+        <v>24.28294809814138</v>
       </c>
       <c r="X31" t="n">
-        <v>52.4354561699572</v>
+        <v>18.23871833997809</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.09757334414944</v>
+        <v>26.00412130144112</v>
       </c>
       <c r="Z31" t="n">
-        <v>34.13310035282122</v>
+        <v>17.0949116025361</v>
       </c>
       <c r="AA31" t="n">
-        <v>14.39304418957478</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>19.59926051781494</v>
+        <v>7.237685567729279</v>
       </c>
       <c r="AC31" t="n">
-        <v>15.44708131812694</v>
+        <v>28.81092940907248</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.8843627848029714</v>
+        <v>71.54639136957231</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.25271114297818</v>
+        <v>4.544964591672857</v>
       </c>
       <c r="AF31" t="n">
-        <v>17.30600079663717</v>
+        <v>75.95127850821653</v>
       </c>
       <c r="AG31" t="n">
-        <v>24.62978597663636</v>
+        <v>10.25967740369641</v>
       </c>
       <c r="AH31" t="n">
-        <v>5.650626705159949</v>
+        <v>3.34736804004445</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>2.38787987419989</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.295958126894507</v>
+        <v>2.83729296564832</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>5.139321009095761</v>
       </c>
       <c r="AL31" t="n">
-        <v>7.561585582329061</v>
+        <v>10.29666057655522</v>
       </c>
       <c r="AM31" t="n">
-        <v>2.945627745794487</v>
+        <v>3.502354233283209</v>
       </c>
       <c r="AN31" t="n">
-        <v>28.0983155148759</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>3.096145123300073</v>
+        <v>8.57295515685197</v>
       </c>
       <c r="AP31" t="n">
-        <v>5.781454467703181</v>
+        <v>8.193519558447875</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>12.85168273483535</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>0.5169586035967859</v>
       </c>
       <c r="AS31" t="n">
-        <v>6.391156991709321</v>
+        <v>3.542619988775766</v>
       </c>
       <c r="AT31" t="n">
-        <v>7.088856779280869</v>
+        <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>1.956830262180444</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.421423050387467</v>
+        <v>4.506603330159622</v>
       </c>
       <c r="AW31" t="n">
-        <v>16.67369976394403</v>
+        <v>13.50521414822066</v>
       </c>
       <c r="AX31" t="n">
-        <v>14.24044903260959</v>
+        <v>6.014075507057822</v>
       </c>
     </row>
   </sheetData>
